--- a/Linuxサーバ構築_構築手順書_YOOSUHWAN.xlsx
+++ b/Linuxサーバ構築_構築手順書_YOOSUHWAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suhwan\Desktop\Linux\Linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B2984-A81E-4685-8CBF-46A2D7D60B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF5FE42-C32F-46FF-B080-D76557B830EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="613">
   <si>
     <t>No</t>
   </si>
@@ -3637,46 +3638,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3: hostAのTera TermでのログインのNo.3まで同じ作業すること。</t>
-    <rPh sb="31" eb="32">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rootユーザーにログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>whoamiコマンド入力し、rootでルートで表示されていること。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IPv6無効化</t>
     <rPh sb="4" eb="7">
       <t>ムコウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下記のコマンドでパッケージを確認及びアップデートする。
-①確認
-# dnf check-update
-②アップデート
-# dnf -y update
-③再起動
-アップデートの反映のため、TERATERMを再起動する。</t>
-    <rPh sb="76" eb="79">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="102" eb="105">
-      <t>サイキドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4038,22 +4002,68 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジーンファイルのバックアップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジーンファイルの修正</t>
-    <rPh sb="8" eb="10">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・フォワーダーとして参照するサーバを192.168.41.1のみに指定すること。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>○DNSサーバ（DOMAIN＝terakoya.local）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3: 共通作業_TERATORMログイン</t>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.OS及びパッケージのアップデート</t>
+    <rPh sb="4" eb="5">
+      <t>オヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通作業</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.共通作業を行う</t>
+    <rPh sb="2" eb="6">
+      <t>キョウツウサギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記のコマンドでパッケージを確認及びアップデートする。
+①確認
+# dnf check-update
+②アップデート
+# dnf -y update
+③再起動
+アップデートの反映のため、再起動する。
+# reboot</t>
+    <rPh sb="76" eb="79">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="93" eb="96">
+      <t>サイキドウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4061,18 +4071,25 @@
 # vi /etc/named.conf
 ②下記の通りに内容を修正する。
 ・11行
-　→listen-on port 53 { 127.0.0.1;192.168.41.221; }; 
+　→listen-on port 53 { 127.0.0.1;192.168.41.220; }; 
 ・19行
 　→allow-query { trust; };
 ・33行
 　→dnssec-validation no;
 ・57行
 　→//include "/etc/named.root.key";
+・option []:中にオプションを追記する。
+　→forwarders {192.168.41.1};
+・58行
+acl trust {
+ 192.168.41.0/24;
+ localhost;
+};
 ・最後の行
 　→
 zone "terakoya.local" IN { 
         type master; 
-        file "alpha.local.zone"; 
+        file "named.localhost"; 
         allow-update { none; }; 
 }; </t>
     <rPh sb="9" eb="11">
@@ -4101,6 +4118,499 @@
     </rPh>
     <rPh sb="172" eb="173">
       <t>コウ</t>
+    </rPh>
+    <rPh sb="220" eb="221">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="266" eb="267">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何も出力されなくてOK</t>
+    <rPh sb="2" eb="4">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジーンファイルの確認</t>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①ジーンファイルを確認する。
+#　cat /etc/name.conf</t>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①下記の通り出力されていること。
+//
+// named.conf
+//
+// Provided by Red Hat bind package to configure the ISC BIND named(8) DNS
+// server as a caching only nameserver (as a localhost DNS resolver only).
+//
+// See /usr/share/doc/bind*/sample/ for example named configuration files.
+//
+options {
+        listen-on port 53 { 127.0.0.1;192.168.41.220; };
+        listen-on-v6 port 53 { ::1; };
+        forwarders      {192.168.41.1;};
+        directory       "/var/named";
+        dump-file       "/var/named/data/cache_dump.db";
+        statistics-file "/var/named/data/named_stats.txt";
+        memstatistics-file "/var/named/data/named_mem_stats.txt";
+        secroots-file   "/var/named/data/named.secroots";
+        recursing-file  "/var/named/data/named.recursing";
+        allow-query     { trust; };
+        /*
+         - If you are building an AUTHORITATIVE DNS server, do NOT enable recursion.
+         - If you are building a RECURSIVE (caching) DNS server, you need to enable
+           recursion.
+         - If your recursive DNS server has a public IP address, you MUST enable access
+           control to limit queries to your legitimate users. Failing to do so will
+           cause your server to become part of large scale DNS amplification
+           attacks. Implementing BCP38 within your network would greatly
+           reduce such attack surface
+        */
+        recursion yes;
+        dnssec-validation no;
+        managed-keys-directory "/var/named/dynamic";
+        geoip-directory "/usr/share/GeoIP";
+        pid-file "/run/named/named.pid";
+        session-keyfile "/run/named/session.key";
+        /* https://fedoraproject.org/wiki/Changes/CryptoPolicy */
+        include "/etc/crypto-policies/back-ends/bind.config";
+};
+logging {
+        channel default_debug {
+                file "data/named.run";
+                severity dynamic;
+        };
+};
+zone "." IN {
+        type hint;
+        file "named.ca";
+};
+include "/etc/named.rfc1912.zones";
+//include "/etc/named.root.key";
+acl trust {
+        192.168.41.0/24;
+        localhost;
+};
+zone "terakoya.local" {
+        type master;
+        file "named.localhost";
+        allow-update { none; };
+};</t>
+    <rPh sb="1" eb="3">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①下記の通り出力されていること。
+11c11
+&lt;       listen-on port 53 { 127.0.0.1;192.168.41.220; };
+---
+&gt;       listen-on port 53 { 127.0.0.1; };
+13d12
+&lt;       forwarders      {192.168.41.1;};
+20c19
+&lt;       allow-query     { trust; };
+---
+&gt;       allow-query     { localhost; };
+34c33
+&lt;       dnssec-validation no;
+---
+&gt;       dnssec-validation yes;
+59c58
+&lt; //include "/etc/named.root.key";
+---
+&gt; include "/etc/named.root.key";
+61,70d59
+&lt; acl trust {
+&lt;       192.168.41.0/24;
+&lt;       localhost;
+&lt; };
+&lt;
+&lt; zone "terakoya.local" {
+&lt;       type master;
+&lt;       file "named.localhost";
+&lt;       allow-update { none; };
+&lt; };</t>
+    <rPh sb="1" eb="3">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの修正</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの確認</t>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①原本ファイルと修正ファイルを比較する。
+# diff /etc/name.conf /work/name.conf</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンポン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジーンファイルの設定</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①何も出力されなくてもOK</t>
+    <rPh sb="1" eb="2">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジーンファイルの編集</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>①下記の通り出力されていること。
+$TTL 1D
+@       IN SOA  @ rname.invalid. (
+                                        0       ; serial
+                                        1D      ; refresh
+                                        1H      ; retry
+                                        1W      ; expire
+                                        3H )    ; minimum
+        NS      @
+        A       127.0.0.1
+        AAAA    ::1</t>
+    <rPh sb="1" eb="3">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPv4関連のconfigファイルを確認</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①下記の通り出力されていること。
+# BIND named process options
+# ~~~~~~~~~~~~~~~~~~~~~~~~~~
+#
+# OPTIONS="whatever"     --  These additional options will be passed to named
+#                            at startup. Don't add -t here, enable proper
+#                            -chroot.service unit file.
+#
+# NAMEDCONF=/etc/named/alternate.conf
+#                        --  Don't use -c to change configuration file.
+#                            Extend systemd named.service instead or use this
+#                            variable.
+#
+# DISABLE_ZONE_CHECKING  --  By default, service file calls named-checkzone
+#                            utility for every zone to ensure all zones are
+#                            valid before named starts. If you set this option
+#                            to 'yes' then service file doesn't perform those
+#                            checks.</t>
+    <rPh sb="1" eb="3">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPv4 のみ使用するオプションを追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>configファイルをバックアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①configファイルをバックアップする。
+# cp -p /etc/sysconfig/named /work/named</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①configファイルの内容確認する。
+# cat /etc/sysconfig/named</t>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①configファイルに設定を追記する。
+# echo 'OPTIONS="-4"' &gt;&gt; /etc/sysconfig/named</t>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①原本ファイルと修正ファイルを比較する。
+# diff /etc/sysconfig/named /work/named</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①下記の通り出力されていること。
+18d17
+&lt; OPTIONS="-4"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BINDの起動</t>
+    <rPh sb="5" eb="7">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①BINDを起動する。
+# systemctl start named-chroot</t>
+    <rPh sb="6" eb="8">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BINDの起動状態の確認</t>
+    <rPh sb="5" eb="7">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①BINDを起動状態を確認する。
+# systemctl stauts named-chroot</t>
+    <rPh sb="6" eb="8">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①ジーンファイルの内容を確認する。
+# cat /var/named/terakoya.local</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①ジーンファイルをバックアップする。
+# cp -p /var/named/named.empty /work/terakoya.local</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①ジーンファイルの編集モードに入る。
+# vi /var/named/terakoya.local
+②下記の通りに修正する。
+$TTL 3H
+$ORIGIN terakoya.local.
+@       IN SOA hostA root (
+                                        2024071101      ; serial
+                                        1D      ; refresh
+                                        1H      ; retry
+                                        1W      ; expire
+                                        3H )    ; minimum
+        NS      hostA.terakoya.local.
+        MX 10   hostB.terakoya.local.
+hostA   A       192.168.41.220
+hostB   A       192.168.41.221
+www     A       192.168.41.221
+mail    A       192.168.41.221
+vhost   A       192.168.41.221</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①下記の通り出力されていること。
+$TTL 3H
+$ORIGIN terakoya.local.
+@       IN SOA hostA root (
+                                        2024071101      ; serial
+                                        1D      ; refresh
+                                        1H      ; retry
+                                        1W      ; expire
+                                        3H )    ; minimum
+        NS      hostA.terakoya.local.
+        MX 10   hostB.terakoya.local.
+hostA   A       192.168.41.220
+hostB   A       192.168.41.221
+www     A       192.168.41.221
+mail    A       192.168.41.221
+vhost   A       192.168.41.221</t>
+    <rPh sb="1" eb="3">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①原本ファイルと修正ファイルを比較する。
+# diff /var/named/terakoya.local /work/named.empty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①下記の通り出力されていること。
+2,4c2,3
+&lt; $ORIGIN terakoya.local.
+&lt; @     IN SOA hostA root (
+&lt;                                       2024071101      ; serial
+---
+&gt; @     IN SOA  @ rname.invalid. (
+&gt;                                       0       ; serial
+9,16c8,10
+&lt;       NS      hostA.terakoya.local.
+&lt;       MX 10   hostB.terakoya.local.
+&lt;
+&lt; hostA A       192.168.41.220
+&lt; hostB A       192.168.41.221
+&lt; www   A       192.168.41.221
+&lt; mail  A       192.168.41.221
+&lt; vhost A       192.168.41.221
+---
+&gt;       NS      @
+&gt;       A       127.0.0.1
+&gt;       AAAA    ::1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①下記の通り出力されていること。
+● named-chroot.service - Berkeley Internet Name Domain (DNS)
+     Loaded: loaded (/usr/lib/systemd/system/named-chroot.service; enabled; vendor preset: disabled)
+     Active: active (running) since Thu 2024-07-11 17:25:13 JST; 10min ago
+    Process: 14866 ExecStartPre=/bin/bash -c if [ ! "$DISABLE_ZONE_CHECKING" == "yes" ]; then /usr/sbin/named-checkc&gt;
+    Process: 14868 ExecStart=/usr/sbin/named -u named -c ${NAMEDCONF} -t /var/named/chroot $OPTIONS (code=exited, st&gt;
+   Main PID: 14869 (named)
+      Tasks: 5 (limit: 8237)
+     Memory: 18.4M
+        CPU: 68ms
+     CGroup: /system.slice/named-chroot.service
+             mq14869 /usr/sbin/named -u named -c /etc/named.conf -t /var/named/chroot -4
+ 7月 11 17:25:13 hostA named[14869]: zone 0.in-addr.arpa/IN: loaded serial 0
+ 7月 11 17:25:13 hostA named[14869]: zone 1.0.0.0.0.0.0.0.0.0.0.0.0.0.0.0.0.0.0.0.0.0.0.0.0.0.0.0.0.0.0.0.ip6.arpa/I&gt;
+ 7月 11 17:25:13 hostA named[14869]: zone 1.0.0.127.in-addr.arpa/IN: loaded serial 0
+ 7月 11 17:25:13 hostA named[14869]: zone localhost/IN: loaded serial 0
+ 7月 11 17:25:13 hostA named[14869]: zone terakoya.local/IN: loaded serial 2024071101
+ 7月 11 17:25:13 hostA named[14869]: zone localhost.localdomain/IN: loaded serial 0
+ 7月 11 17:25:13 hostA named[14869]: all zones loaded
+ 7月 11 17:25:13 hostA systemd[1]: Started Berkeley Internet Name Domain (DNS).
+ 7月 11 17:25:13 hostA named[14869]: running
+ 7月 11 17:26:05 hostA named[14869]: resolver priming query complete</t>
+    <rPh sb="1" eb="3">
+      <t>カキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4109,7 +4619,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4329,8 +4839,17 @@
       <charset val="128"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4352,6 +4871,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4569,7 +5094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4816,6 +5341,195 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4828,23 +5542,149 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4855,344 +5695,80 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5815,26 +6391,26 @@
       </c>
     </row>
     <row r="17" spans="6:13" x14ac:dyDescent="0.15">
-      <c r="F17" s="82" t="s">
+      <c r="F17" s="145" t="s">
         <v>232</v>
       </c>
-      <c r="G17" s="83"/>
-      <c r="I17" s="82" t="s">
+      <c r="G17" s="146"/>
+      <c r="I17" s="145" t="s">
         <v>231</v>
       </c>
-      <c r="J17" s="83"/>
-      <c r="L17" s="82" t="s">
+      <c r="J17" s="146"/>
+      <c r="L17" s="145" t="s">
         <v>230</v>
       </c>
-      <c r="M17" s="83"/>
+      <c r="M17" s="146"/>
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.15">
-      <c r="F18" s="84"/>
-      <c r="G18" s="85"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="85"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="85"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="148"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="148"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="148"/>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.15">
       <c r="F19" s="64"/>
@@ -6129,17 +6705,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:J259"/>
+  <dimension ref="B1:K273"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B235" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E236" sqref="E236"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A128" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134:E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="0.875" style="12" customWidth="1"/>
     <col min="2" max="2" width="4.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51.625" style="14" customWidth="1"/>
     <col min="6" max="6" width="68.625" style="13" bestFit="1" customWidth="1"/>
@@ -6210,10 +6786,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="153" t="s">
         <v>225</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -6224,45 +6800,45 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="87"/>
-      <c r="C6" s="90"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="154"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="87"/>
-      <c r="C7" s="90"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="154"/>
       <c r="E7" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="163" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="87"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="154"/>
       <c r="E8" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="110"/>
+      <c r="F8" s="163"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="88"/>
-      <c r="C9" s="91"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="155"/>
       <c r="D9" s="38"/>
       <c r="E9" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="F9" s="111"/>
+      <c r="F9" s="164"/>
       <c r="G9" s="40"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="28"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="153" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -6273,8 +6849,8 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="88"/>
-      <c r="C11" s="91"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="155"/>
       <c r="D11" s="38"/>
       <c r="E11" s="19" t="s">
         <v>32</v>
@@ -6286,10 +6862,10 @@
       <c r="J11" s="28"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="153" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -6300,8 +6876,8 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="88"/>
-      <c r="C13" s="91"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="155"/>
       <c r="D13" s="36"/>
       <c r="E13" s="19" t="s">
         <v>43</v>
@@ -6313,10 +6889,10 @@
       <c r="J13" s="28"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="153" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="35"/>
@@ -6328,8 +6904,8 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="88"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="36"/>
       <c r="E15" s="19" t="s">
         <v>236</v>
@@ -6341,10 +6917,10 @@
       <c r="J15" s="28"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="153" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="35"/>
@@ -6356,8 +6932,8 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="88"/>
-      <c r="C17" s="91"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="155"/>
       <c r="D17" s="36"/>
       <c r="E17" s="19"/>
       <c r="F17" s="28"/>
@@ -6367,10 +6943,10 @@
       <c r="J17" s="28"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="151" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="153" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="35"/>
@@ -6382,8 +6958,8 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="B19" s="88"/>
-      <c r="C19" s="91"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="155"/>
       <c r="D19" s="36"/>
       <c r="E19" s="69" t="s">
         <v>239</v>
@@ -6395,10 +6971,10 @@
       <c r="J19" s="28"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="153" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="35"/>
@@ -6410,8 +6986,8 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="87"/>
-      <c r="C21" s="90"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="154"/>
       <c r="D21" s="35"/>
       <c r="E21" s="14" t="s">
         <v>46</v>
@@ -6421,8 +6997,8 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="88"/>
-      <c r="C22" s="91"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="155"/>
       <c r="D22" s="36"/>
       <c r="E22" s="19" t="s">
         <v>240</v>
@@ -6436,10 +7012,10 @@
       <c r="J22" s="28"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="153" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="35"/>
@@ -6451,8 +7027,8 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="87"/>
-      <c r="C24" s="90"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="154"/>
       <c r="D24" s="35"/>
       <c r="E24" s="14" t="s">
         <v>50</v>
@@ -6462,8 +7038,8 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="87"/>
-      <c r="C25" s="90"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="154"/>
       <c r="D25" s="35"/>
       <c r="E25" s="14" t="s">
         <v>52</v>
@@ -6473,8 +7049,8 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="88"/>
-      <c r="C26" s="91"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="155"/>
       <c r="D26" s="36"/>
       <c r="E26" s="19" t="s">
         <v>54</v>
@@ -6488,10 +7064,10 @@
       <c r="J26" s="28"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="153" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="35"/>
@@ -6503,8 +7079,8 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="88"/>
-      <c r="C28" s="91"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="155"/>
       <c r="D28" s="36"/>
       <c r="E28" s="19" t="s">
         <v>242</v>
@@ -6516,10 +7092,10 @@
       <c r="J28" s="28"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="153" t="s">
         <v>57</v>
       </c>
       <c r="D29" s="35"/>
@@ -6531,8 +7107,8 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="87"/>
-      <c r="C30" s="90"/>
+      <c r="B30" s="156"/>
+      <c r="C30" s="154"/>
       <c r="D30" s="35"/>
       <c r="E30" s="14" t="s">
         <v>59</v>
@@ -6542,8 +7118,8 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="87"/>
-      <c r="C31" s="90"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="154"/>
       <c r="D31" s="35"/>
       <c r="E31" s="14" t="s">
         <v>62</v>
@@ -6553,8 +7129,8 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="88"/>
-      <c r="C32" s="91"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="155"/>
       <c r="D32" s="36"/>
       <c r="E32" s="19" t="s">
         <v>61</v>
@@ -6568,10 +7144,10 @@
       <c r="J32" s="28"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="89" t="s">
+      <c r="C33" s="153" t="s">
         <v>72</v>
       </c>
       <c r="D33" s="35"/>
@@ -6583,8 +7159,8 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="88"/>
-      <c r="C34" s="91"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="155"/>
       <c r="D34" s="36"/>
       <c r="E34" s="70" t="s">
         <v>244</v>
@@ -6596,10 +7172,10 @@
       <c r="J34" s="28"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="89" t="s">
+      <c r="C35" s="153" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="35"/>
@@ -6611,8 +7187,8 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="B36" s="88"/>
-      <c r="C36" s="91"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="155"/>
       <c r="D36" s="36"/>
       <c r="E36" s="70" t="s">
         <v>75</v>
@@ -6624,10 +7200,10 @@
       <c r="J36" s="28"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="151" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="89" t="s">
+      <c r="C37" s="153" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="35"/>
@@ -6640,16 +7216,16 @@
       <c r="G37" s="37"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="87"/>
-      <c r="C38" s="90"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="154"/>
       <c r="D38" s="35"/>
       <c r="E38" s="12"/>
       <c r="F38" s="72"/>
       <c r="G38" s="35"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="87"/>
-      <c r="C39" s="90"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="154"/>
       <c r="D39" s="35"/>
       <c r="E39" s="14" t="s">
         <v>246</v>
@@ -6660,8 +7236,8 @@
       <c r="G39" s="35"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="87"/>
-      <c r="C40" s="90"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="154"/>
       <c r="D40" s="35"/>
       <c r="E40" s="15" t="s">
         <v>248</v>
@@ -6672,8 +7248,8 @@
       <c r="G40" s="35"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="88"/>
-      <c r="C41" s="91"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="155"/>
       <c r="D41" s="35"/>
       <c r="E41" s="15" t="s">
         <v>249</v>
@@ -6684,10 +7260,10 @@
       <c r="G41" s="35"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="153" t="s">
         <v>81</v>
       </c>
       <c r="D42" s="37"/>
@@ -6703,13 +7279,13 @@
       <c r="J42" s="43"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="87"/>
-      <c r="C43" s="90"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="154"/>
       <c r="D43" s="35"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="87"/>
-      <c r="C44" s="90"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="154"/>
       <c r="D44" s="35"/>
       <c r="E44" s="14" t="s">
         <v>79</v>
@@ -6719,8 +7295,8 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="88"/>
-      <c r="C45" s="91"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="155"/>
       <c r="D45" s="36"/>
       <c r="E45" s="19" t="s">
         <v>250</v>
@@ -6734,10 +7310,10 @@
       <c r="J45" s="28"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="86" t="s">
+      <c r="B46" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="89" t="s">
+      <c r="C46" s="153" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="35"/>
@@ -6749,13 +7325,13 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="87"/>
-      <c r="C47" s="90"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="154"/>
       <c r="D47" s="35"/>
     </row>
     <row r="48" spans="2:10" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="B48" s="88"/>
-      <c r="C48" s="91"/>
+      <c r="B48" s="152"/>
+      <c r="C48" s="155"/>
       <c r="D48" s="36"/>
       <c r="E48" s="19" t="s">
         <v>84</v>
@@ -6767,10 +7343,10 @@
       <c r="J48" s="28"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="86" t="s">
+      <c r="B49" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="89" t="s">
+      <c r="C49" s="153" t="s">
         <v>97</v>
       </c>
       <c r="D49" s="35"/>
@@ -6782,13 +7358,13 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="87"/>
-      <c r="C50" s="90"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="154"/>
       <c r="D50" s="35"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="88"/>
-      <c r="C51" s="91"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="155"/>
       <c r="D51" s="36"/>
       <c r="E51" s="19" t="s">
         <v>99</v>
@@ -6800,10 +7376,10 @@
       <c r="J51" s="28"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="86" t="s">
+      <c r="B52" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="89" t="s">
+      <c r="C52" s="153" t="s">
         <v>101</v>
       </c>
       <c r="D52" s="35"/>
@@ -6815,23 +7391,23 @@
       </c>
     </row>
     <row r="53" spans="2:10" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="B53" s="87"/>
-      <c r="C53" s="90"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="154"/>
       <c r="D53" s="35"/>
       <c r="E53" s="80" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="87"/>
-      <c r="C54" s="90"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="154"/>
       <c r="D54" s="35"/>
       <c r="E54" s="62"/>
       <c r="F54" s="63"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="87"/>
-      <c r="C55" s="90"/>
+      <c r="B55" s="156"/>
+      <c r="C55" s="154"/>
       <c r="D55" s="35"/>
       <c r="E55" s="14" t="s">
         <v>209</v>
@@ -6841,16 +7417,16 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="87"/>
-      <c r="C56" s="90"/>
+      <c r="B56" s="156"/>
+      <c r="C56" s="154"/>
       <c r="D56" s="35"/>
       <c r="E56" s="14" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="B57" s="88"/>
-      <c r="C57" s="91"/>
+      <c r="B57" s="152"/>
+      <c r="C57" s="155"/>
       <c r="D57" s="36"/>
       <c r="E57" s="19" t="s">
         <v>211</v>
@@ -6862,10 +7438,10 @@
       <c r="J57" s="28"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="86" t="s">
+      <c r="B58" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="95" t="s">
+      <c r="C58" s="149" t="s">
         <v>105</v>
       </c>
       <c r="D58" s="35"/>
@@ -6877,8 +7453,8 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="88"/>
-      <c r="C59" s="96"/>
+      <c r="B59" s="152"/>
+      <c r="C59" s="150"/>
       <c r="D59" s="36"/>
       <c r="E59" s="19" t="s">
         <v>205</v>
@@ -6892,10 +7468,10 @@
       <c r="J59" s="28"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="86" t="s">
+      <c r="B60" s="151" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="95" t="s">
+      <c r="C60" s="149" t="s">
         <v>253</v>
       </c>
       <c r="D60" s="37"/>
@@ -6907,8 +7483,8 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B61" s="88"/>
-      <c r="C61" s="96"/>
+      <c r="B61" s="152"/>
+      <c r="C61" s="150"/>
       <c r="D61" s="35"/>
       <c r="E61" s="14" t="s">
         <v>254</v>
@@ -6953,8 +7529,8 @@
         <v>424</v>
       </c>
       <c r="C64" s="79"/>
-      <c r="D64" s="155"/>
-      <c r="E64" s="156"/>
+      <c r="D64" s="110"/>
+      <c r="E64" s="111"/>
       <c r="F64" s="8"/>
       <c r="G64" s="47"/>
       <c r="H64" s="33"/>
@@ -7002,13 +7578,13 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="86" t="s">
+      <c r="B67" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="C67" s="89" t="s">
+      <c r="C67" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="D67" s="89" t="s">
+      <c r="D67" s="153" t="s">
         <v>302</v>
       </c>
       <c r="E67" s="22" t="s">
@@ -7023,9 +7599,9 @@
       <c r="J67" s="20"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="88"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
+      <c r="B68" s="152"/>
+      <c r="C68" s="155"/>
+      <c r="D68" s="155"/>
       <c r="E68" s="19" t="s">
         <v>111</v>
       </c>
@@ -7057,13 +7633,13 @@
       <c r="J69" s="53"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="86" t="s">
+      <c r="B70" s="151" t="s">
         <v>115</v>
       </c>
-      <c r="C70" s="89" t="s">
+      <c r="C70" s="153" t="s">
         <v>261</v>
       </c>
-      <c r="D70" s="89" t="s">
+      <c r="D70" s="153" t="s">
         <v>302</v>
       </c>
       <c r="E70" s="14" t="s">
@@ -7074,9 +7650,9 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="88"/>
-      <c r="C71" s="91"/>
-      <c r="D71" s="91"/>
+      <c r="B71" s="152"/>
+      <c r="C71" s="155"/>
+      <c r="D71" s="155"/>
       <c r="E71" s="19" t="s">
         <v>117</v>
       </c>
@@ -7108,26 +7684,26 @@
       <c r="J72" s="53"/>
     </row>
     <row r="73" spans="2:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="B73" s="99" t="s">
+      <c r="B73" s="165" t="s">
         <v>426</v>
       </c>
-      <c r="C73" s="100"/>
-      <c r="D73" s="100"/>
-      <c r="E73" s="100"/>
-      <c r="F73" s="100"/>
-      <c r="G73" s="100"/>
-      <c r="H73" s="100"/>
-      <c r="I73" s="100"/>
-      <c r="J73" s="101"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="166"/>
+      <c r="E73" s="166"/>
+      <c r="F73" s="166"/>
+      <c r="G73" s="166"/>
+      <c r="H73" s="166"/>
+      <c r="I73" s="166"/>
+      <c r="J73" s="167"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="86" t="s">
+      <c r="B74" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="89" t="s">
+      <c r="C74" s="153" t="s">
         <v>265</v>
       </c>
-      <c r="D74" s="89" t="s">
+      <c r="D74" s="153" t="s">
         <v>302</v>
       </c>
       <c r="E74" s="22" t="s">
@@ -7142,9 +7718,9 @@
       <c r="J74" s="43"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="87"/>
-      <c r="C75" s="90"/>
-      <c r="D75" s="90"/>
+      <c r="B75" s="156"/>
+      <c r="C75" s="154"/>
+      <c r="D75" s="154"/>
       <c r="E75" s="14" t="s">
         <v>267</v>
       </c>
@@ -7153,9 +7729,9 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="88"/>
-      <c r="C76" s="91"/>
-      <c r="D76" s="91"/>
+      <c r="B76" s="152"/>
+      <c r="C76" s="155"/>
+      <c r="D76" s="155"/>
       <c r="E76" s="14" t="s">
         <v>268</v>
       </c>
@@ -7164,13 +7740,13 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="86" t="s">
+      <c r="B77" s="151" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="89" t="s">
+      <c r="C77" s="153" t="s">
         <v>271</v>
       </c>
-      <c r="D77" s="89" t="s">
+      <c r="D77" s="153" t="s">
         <v>302</v>
       </c>
       <c r="E77" s="22" t="s">
@@ -7185,9 +7761,9 @@
       <c r="J77" s="43"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="87"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
+      <c r="B78" s="156"/>
+      <c r="C78" s="154"/>
+      <c r="D78" s="154"/>
       <c r="E78" s="14" t="s">
         <v>273</v>
       </c>
@@ -7197,9 +7773,9 @@
       <c r="G78" s="35"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="87"/>
-      <c r="C79" s="90"/>
-      <c r="D79" s="90"/>
+      <c r="B79" s="156"/>
+      <c r="C79" s="154"/>
+      <c r="D79" s="154"/>
       <c r="E79" s="14" t="s">
         <v>274</v>
       </c>
@@ -7208,21 +7784,21 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="88"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="91"/>
+      <c r="B80" s="152"/>
+      <c r="C80" s="155"/>
+      <c r="D80" s="155"/>
       <c r="E80" s="14" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="86" t="s">
+      <c r="B81" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="89" t="s">
+      <c r="C81" s="153" t="s">
         <v>276</v>
       </c>
-      <c r="D81" s="89" t="s">
+      <c r="D81" s="153" t="s">
         <v>302</v>
       </c>
       <c r="E81" s="22" t="s">
@@ -7237,9 +7813,9 @@
       <c r="J81" s="43"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B82" s="87"/>
-      <c r="C82" s="90"/>
-      <c r="D82" s="90"/>
+      <c r="B82" s="156"/>
+      <c r="C82" s="154"/>
+      <c r="D82" s="154"/>
       <c r="E82" s="14" t="s">
         <v>284</v>
       </c>
@@ -7248,9 +7824,9 @@
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B83" s="87"/>
-      <c r="C83" s="90"/>
-      <c r="D83" s="90"/>
+      <c r="B83" s="156"/>
+      <c r="C83" s="154"/>
+      <c r="D83" s="154"/>
       <c r="E83" s="14" t="s">
         <v>279</v>
       </c>
@@ -7259,9 +7835,9 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="87"/>
-      <c r="C84" s="90"/>
-      <c r="D84" s="90"/>
+      <c r="B84" s="156"/>
+      <c r="C84" s="154"/>
+      <c r="D84" s="154"/>
       <c r="E84" s="14" t="s">
         <v>285</v>
       </c>
@@ -7270,9 +7846,9 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="87"/>
-      <c r="C85" s="90"/>
-      <c r="D85" s="90"/>
+      <c r="B85" s="156"/>
+      <c r="C85" s="154"/>
+      <c r="D85" s="154"/>
       <c r="E85" s="14" t="s">
         <v>280</v>
       </c>
@@ -7281,9 +7857,9 @@
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="87"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="90"/>
+      <c r="B86" s="156"/>
+      <c r="C86" s="154"/>
+      <c r="D86" s="154"/>
       <c r="E86" s="14" t="s">
         <v>281</v>
       </c>
@@ -7292,9 +7868,9 @@
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="87"/>
-      <c r="C87" s="90"/>
-      <c r="D87" s="90"/>
+      <c r="B87" s="156"/>
+      <c r="C87" s="154"/>
+      <c r="D87" s="154"/>
       <c r="E87" s="14" t="s">
         <v>282</v>
       </c>
@@ -7303,9 +7879,9 @@
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="87"/>
-      <c r="C88" s="90"/>
-      <c r="D88" s="90"/>
+      <c r="B88" s="156"/>
+      <c r="C88" s="154"/>
+      <c r="D88" s="154"/>
       <c r="E88" s="14" t="s">
         <v>283</v>
       </c>
@@ -7314,9 +7890,9 @@
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="87"/>
-      <c r="C89" s="90"/>
-      <c r="D89" s="90"/>
+      <c r="B89" s="156"/>
+      <c r="C89" s="154"/>
+      <c r="D89" s="154"/>
       <c r="E89" s="14" t="s">
         <v>286</v>
       </c>
@@ -7325,9 +7901,9 @@
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B90" s="87"/>
-      <c r="C90" s="90"/>
-      <c r="D90" s="90"/>
+      <c r="B90" s="156"/>
+      <c r="C90" s="154"/>
+      <c r="D90" s="154"/>
       <c r="E90" s="14" t="s">
         <v>287</v>
       </c>
@@ -7336,9 +7912,9 @@
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="87"/>
-      <c r="C91" s="90"/>
-      <c r="D91" s="90"/>
+      <c r="B91" s="156"/>
+      <c r="C91" s="154"/>
+      <c r="D91" s="154"/>
       <c r="E91" s="14" t="s">
         <v>288</v>
       </c>
@@ -7347,17 +7923,17 @@
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="87"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="90"/>
+      <c r="B92" s="156"/>
+      <c r="C92" s="154"/>
+      <c r="D92" s="154"/>
       <c r="E92" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="88"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="91"/>
+      <c r="B93" s="152"/>
+      <c r="C93" s="155"/>
+      <c r="D93" s="155"/>
       <c r="E93" s="19" t="s">
         <v>291</v>
       </c>
@@ -7368,13 +7944,13 @@
       <c r="J93" s="28"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="86" t="s">
+      <c r="B94" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="C94" s="89" t="s">
+      <c r="C94" s="153" t="s">
         <v>296</v>
       </c>
-      <c r="D94" s="89" t="s">
+      <c r="D94" s="153" t="s">
         <v>302</v>
       </c>
       <c r="E94" s="14" t="s">
@@ -7388,9 +7964,9 @@
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="87"/>
-      <c r="C95" s="90"/>
-      <c r="D95" s="90"/>
+      <c r="B95" s="156"/>
+      <c r="C95" s="154"/>
+      <c r="D95" s="154"/>
       <c r="E95" s="14" t="s">
         <v>297</v>
       </c>
@@ -7399,9 +7975,9 @@
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="87"/>
-      <c r="C96" s="90"/>
-      <c r="D96" s="90"/>
+      <c r="B96" s="156"/>
+      <c r="C96" s="154"/>
+      <c r="D96" s="154"/>
       <c r="E96" s="14" t="s">
         <v>298</v>
       </c>
@@ -7410,9 +7986,9 @@
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B97" s="88"/>
-      <c r="C97" s="91"/>
-      <c r="D97" s="91"/>
+      <c r="B97" s="152"/>
+      <c r="C97" s="155"/>
+      <c r="D97" s="155"/>
       <c r="E97" s="17"/>
       <c r="F97" s="28"/>
       <c r="G97" s="40"/>
@@ -7421,13 +7997,13 @@
       <c r="J97" s="28"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B98" s="86" t="s">
+      <c r="B98" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="C98" s="89" t="s">
+      <c r="C98" s="153" t="s">
         <v>301</v>
       </c>
-      <c r="D98" s="89" t="s">
+      <c r="D98" s="153" t="s">
         <v>302</v>
       </c>
       <c r="E98" s="14" t="s">
@@ -7444,9 +8020,9 @@
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B99" s="87"/>
-      <c r="C99" s="90"/>
-      <c r="D99" s="90"/>
+      <c r="B99" s="156"/>
+      <c r="C99" s="154"/>
+      <c r="D99" s="154"/>
       <c r="E99" s="14" t="s">
         <v>304</v>
       </c>
@@ -7455,9 +8031,9 @@
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B100" s="87"/>
-      <c r="C100" s="90"/>
-      <c r="D100" s="90"/>
+      <c r="B100" s="156"/>
+      <c r="C100" s="154"/>
+      <c r="D100" s="154"/>
       <c r="E100" s="14" t="s">
         <v>305</v>
       </c>
@@ -7466,9 +8042,9 @@
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B101" s="87"/>
-      <c r="C101" s="90"/>
-      <c r="D101" s="90"/>
+      <c r="B101" s="156"/>
+      <c r="C101" s="154"/>
+      <c r="D101" s="154"/>
       <c r="E101" s="14" t="s">
         <v>303</v>
       </c>
@@ -7477,9 +8053,9 @@
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B102" s="87"/>
-      <c r="C102" s="90"/>
-      <c r="D102" s="90"/>
+      <c r="B102" s="156"/>
+      <c r="C102" s="154"/>
+      <c r="D102" s="154"/>
       <c r="E102" s="14" t="s">
         <v>521</v>
       </c>
@@ -7488,9 +8064,9 @@
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B103" s="88"/>
-      <c r="C103" s="91"/>
-      <c r="D103" s="91"/>
+      <c r="B103" s="152"/>
+      <c r="C103" s="155"/>
+      <c r="D103" s="155"/>
       <c r="E103" s="17" t="s">
         <v>520</v>
       </c>
@@ -7553,10 +8129,10 @@
     </row>
     <row r="107" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B107" s="78" t="s">
-        <v>425</v>
+        <v>571</v>
       </c>
       <c r="C107" s="79"/>
-      <c r="D107" s="155"/>
+      <c r="D107" s="110"/>
       <c r="E107" s="12"/>
       <c r="F107" s="8"/>
       <c r="G107" s="47"/>
@@ -7576,2198 +8152,2483 @@
       <c r="J108" s="8"/>
     </row>
     <row r="109" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="116" t="s">
+      <c r="B109" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C109" s="117" t="s">
+      <c r="C109" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D109" s="118" t="s">
+      <c r="D109" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="E109" s="117" t="s">
+      <c r="E109" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="F109" s="119" t="s">
+      <c r="F109" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="G109" s="118" t="s">
+      <c r="G109" s="92" t="s">
         <v>449</v>
       </c>
-      <c r="H109" s="118" t="s">
+      <c r="H109" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="I109" s="118" t="s">
+      <c r="I109" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="J109" s="118" t="s">
+      <c r="J109" s="92" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="110" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="120" t="s">
+      <c r="B110" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="121" t="s">
+      <c r="C110" s="159" t="s">
         <v>450</v>
       </c>
-      <c r="D110" s="121" t="s">
+      <c r="D110" s="159" t="s">
         <v>302</v>
       </c>
-      <c r="E110" s="122" t="s">
+      <c r="E110" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="F110" s="123" t="s">
-        <v>541</v>
-      </c>
-      <c r="G110" s="124"/>
-      <c r="H110" s="121"/>
-      <c r="I110" s="125"/>
-      <c r="J110" s="126"/>
+      <c r="F110" s="96" t="s">
+        <v>537</v>
+      </c>
+      <c r="G110" s="161"/>
+      <c r="H110" s="159"/>
+      <c r="I110" s="94"/>
+      <c r="J110" s="97"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B111" s="127"/>
-      <c r="C111" s="128"/>
-      <c r="D111" s="128"/>
-      <c r="E111" s="129" t="s">
+      <c r="B111" s="158"/>
+      <c r="C111" s="160"/>
+      <c r="D111" s="160"/>
+      <c r="E111" s="100" t="s">
         <v>451</v>
       </c>
-      <c r="F111" s="130"/>
-      <c r="G111" s="128"/>
-      <c r="H111" s="128"/>
-      <c r="I111" s="131"/>
-      <c r="J111" s="132"/>
+      <c r="F111" s="101"/>
+      <c r="G111" s="160"/>
+      <c r="H111" s="160"/>
+      <c r="I111" s="99"/>
+      <c r="J111" s="102"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B112" s="127"/>
-      <c r="C112" s="128"/>
-      <c r="D112" s="128"/>
-      <c r="E112" s="129"/>
-      <c r="F112" s="144"/>
-      <c r="G112" s="128"/>
-      <c r="H112" s="128"/>
-      <c r="I112" s="131"/>
-      <c r="J112" s="132"/>
+      <c r="B112" s="158"/>
+      <c r="C112" s="160"/>
+      <c r="D112" s="160"/>
+      <c r="E112" s="100"/>
+      <c r="F112" s="191"/>
+      <c r="G112" s="160"/>
+      <c r="H112" s="160"/>
+      <c r="I112" s="99"/>
+      <c r="J112" s="102"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B113" s="127"/>
-      <c r="C113" s="128"/>
-      <c r="D113" s="128"/>
-      <c r="E113" s="129"/>
-      <c r="F113" s="150"/>
-      <c r="G113" s="128"/>
-      <c r="H113" s="128"/>
-      <c r="I113" s="131"/>
-      <c r="J113" s="132"/>
+      <c r="B113" s="158"/>
+      <c r="C113" s="160"/>
+      <c r="D113" s="160"/>
+      <c r="E113" s="100"/>
+      <c r="F113" s="194"/>
+      <c r="G113" s="160"/>
+      <c r="H113" s="160"/>
+      <c r="I113" s="99"/>
+      <c r="J113" s="102"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B114" s="127"/>
-      <c r="C114" s="128"/>
-      <c r="D114" s="128"/>
-      <c r="E114" s="129"/>
-      <c r="F114" s="150"/>
-      <c r="G114" s="128"/>
-      <c r="H114" s="128"/>
-      <c r="I114" s="131"/>
-      <c r="J114" s="132"/>
+      <c r="B114" s="158"/>
+      <c r="C114" s="160"/>
+      <c r="D114" s="160"/>
+      <c r="E114" s="100"/>
+      <c r="F114" s="194"/>
+      <c r="G114" s="160"/>
+      <c r="H114" s="160"/>
+      <c r="I114" s="99"/>
+      <c r="J114" s="102"/>
     </row>
     <row r="115" spans="2:10" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="127"/>
-      <c r="C115" s="128"/>
-      <c r="D115" s="128"/>
-      <c r="E115" s="129"/>
-      <c r="F115" s="151"/>
-      <c r="G115" s="133"/>
-      <c r="H115" s="133"/>
-      <c r="I115" s="131"/>
-      <c r="J115" s="132"/>
+      <c r="B115" s="158"/>
+      <c r="C115" s="160"/>
+      <c r="D115" s="160"/>
+      <c r="E115" s="100"/>
+      <c r="F115" s="173"/>
+      <c r="G115" s="162"/>
+      <c r="H115" s="162"/>
+      <c r="I115" s="99"/>
+      <c r="J115" s="102"/>
     </row>
     <row r="116" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="120" t="s">
+      <c r="B116" s="157" t="s">
         <v>452</v>
       </c>
-      <c r="C116" s="121" t="s">
+      <c r="C116" s="159" t="s">
         <v>523</v>
       </c>
-      <c r="D116" s="121" t="s">
+      <c r="D116" s="159" t="s">
         <v>302</v>
       </c>
-      <c r="E116" s="122" t="s">
+      <c r="E116" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="F116" s="123" t="s">
+      <c r="F116" s="96" t="s">
         <v>522</v>
       </c>
-      <c r="G116" s="134"/>
-      <c r="H116" s="121"/>
-      <c r="I116" s="125"/>
-      <c r="J116" s="126"/>
+      <c r="G116" s="174"/>
+      <c r="H116" s="159"/>
+      <c r="I116" s="94"/>
+      <c r="J116" s="97"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B117" s="127"/>
-      <c r="C117" s="128"/>
-      <c r="D117" s="128"/>
-      <c r="E117" s="129"/>
-      <c r="F117" s="130" t="s">
+      <c r="B117" s="158"/>
+      <c r="C117" s="160"/>
+      <c r="D117" s="160"/>
+      <c r="E117" s="100"/>
+      <c r="F117" s="101" t="s">
         <v>524</v>
       </c>
-      <c r="G117" s="128"/>
-      <c r="H117" s="128"/>
-      <c r="I117" s="131"/>
-      <c r="J117" s="132"/>
+      <c r="G117" s="160"/>
+      <c r="H117" s="160"/>
+      <c r="I117" s="99"/>
+      <c r="J117" s="102"/>
     </row>
     <row r="118" spans="2:10" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B118" s="127"/>
-      <c r="C118" s="128"/>
-      <c r="D118" s="128"/>
-      <c r="E118" s="157" t="s">
+      <c r="B118" s="158"/>
+      <c r="C118" s="160"/>
+      <c r="D118" s="160"/>
+      <c r="E118" s="112" t="s">
         <v>453</v>
       </c>
-      <c r="F118" s="130"/>
-      <c r="G118" s="128"/>
-      <c r="H118" s="128"/>
-      <c r="I118" s="131"/>
-      <c r="J118" s="132"/>
+      <c r="F118" s="101"/>
+      <c r="G118" s="160"/>
+      <c r="H118" s="160"/>
+      <c r="I118" s="99"/>
+      <c r="J118" s="102"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B119" s="135"/>
-      <c r="C119" s="133"/>
-      <c r="D119" s="133"/>
-      <c r="E119" s="136" t="s">
+      <c r="B119" s="172"/>
+      <c r="C119" s="162"/>
+      <c r="D119" s="162"/>
+      <c r="E119" s="104" t="s">
         <v>519</v>
       </c>
-      <c r="F119" s="137"/>
-      <c r="G119" s="133"/>
-      <c r="H119" s="133"/>
-      <c r="I119" s="138"/>
-      <c r="J119" s="139"/>
+      <c r="F119" s="105"/>
+      <c r="G119" s="162"/>
+      <c r="H119" s="162"/>
+      <c r="I119" s="103"/>
+      <c r="J119" s="106"/>
     </row>
     <row r="120" spans="2:10" ht="72" x14ac:dyDescent="0.15">
-      <c r="B120" s="140" t="s">
+      <c r="B120" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="C120" s="131" t="s">
+      <c r="C120" s="99" t="s">
         <v>533</v>
       </c>
-      <c r="D120" s="131" t="s">
+      <c r="D120" s="99" t="s">
         <v>302</v>
       </c>
-      <c r="E120" s="154" t="s">
-        <v>566</v>
-      </c>
-      <c r="F120" s="152" t="s">
-        <v>567</v>
-      </c>
-      <c r="G120" s="131"/>
-      <c r="H120" s="131"/>
-      <c r="I120" s="131"/>
-      <c r="J120" s="132"/>
-    </row>
-    <row r="121" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="120" t="s">
+      <c r="E120" s="108" t="s">
+        <v>562</v>
+      </c>
+      <c r="F120" s="109" t="s">
+        <v>563</v>
+      </c>
+      <c r="G120" s="99"/>
+      <c r="H120" s="99"/>
+      <c r="I120" s="99"/>
+      <c r="J120" s="102"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B121" s="98"/>
+      <c r="C121" s="99"/>
+      <c r="D121" s="99"/>
+      <c r="E121" s="108"/>
+      <c r="F121" s="109"/>
+      <c r="G121" s="99"/>
+      <c r="H121" s="99"/>
+      <c r="I121" s="99"/>
+      <c r="J121" s="102"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B122" s="98"/>
+      <c r="C122" s="99"/>
+      <c r="D122" s="99"/>
+      <c r="E122" s="108"/>
+      <c r="F122" s="109"/>
+      <c r="G122" s="99"/>
+      <c r="H122" s="99"/>
+      <c r="I122" s="99"/>
+      <c r="J122" s="102"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B123" s="98"/>
+      <c r="C123" s="99"/>
+      <c r="D123" s="99"/>
+      <c r="E123" s="108"/>
+      <c r="F123" s="109"/>
+      <c r="G123" s="99"/>
+      <c r="H123" s="99"/>
+      <c r="I123" s="99"/>
+      <c r="J123" s="102"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B124" s="98"/>
+      <c r="C124" s="99"/>
+      <c r="D124" s="99"/>
+      <c r="E124" s="108"/>
+      <c r="F124" s="109"/>
+      <c r="G124" s="99"/>
+      <c r="H124" s="99"/>
+      <c r="I124" s="99"/>
+      <c r="J124" s="102"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B125" s="98"/>
+      <c r="C125" s="99"/>
+      <c r="D125" s="99"/>
+      <c r="E125" s="108"/>
+      <c r="F125" s="109"/>
+      <c r="G125" s="99"/>
+      <c r="H125" s="99"/>
+      <c r="I125" s="99"/>
+      <c r="J125" s="102"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B126" s="98"/>
+      <c r="C126" s="99"/>
+      <c r="D126" s="99"/>
+      <c r="E126" s="108"/>
+      <c r="F126" s="109"/>
+      <c r="G126" s="99"/>
+      <c r="H126" s="99"/>
+      <c r="I126" s="99"/>
+      <c r="J126" s="102"/>
+    </row>
+    <row r="127" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="204" t="s">
         <v>66</v>
       </c>
-      <c r="C121" s="121" t="s">
+      <c r="C127" s="205" t="s">
         <v>139</v>
       </c>
-      <c r="D121" s="121" t="s">
+      <c r="D127" s="205" t="s">
         <v>302</v>
       </c>
-      <c r="E121" s="141" t="s">
+      <c r="E127" s="206" t="s">
         <v>525</v>
       </c>
-      <c r="F121" s="149" t="s">
+      <c r="F127" s="207" t="s">
         <v>526</v>
       </c>
-      <c r="G121" s="134"/>
-      <c r="H121" s="121"/>
-      <c r="I121" s="125"/>
-      <c r="J121" s="126"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B122" s="135"/>
-      <c r="C122" s="133"/>
-      <c r="D122" s="133"/>
-      <c r="E122" s="151"/>
-      <c r="F122" s="151"/>
-      <c r="G122" s="133"/>
-      <c r="H122" s="133"/>
-      <c r="I122" s="138"/>
-      <c r="J122" s="139"/>
-    </row>
-    <row r="123" spans="2:10" ht="84" x14ac:dyDescent="0.15">
-      <c r="B123" s="158" t="s">
+      <c r="G127" s="208"/>
+      <c r="H127" s="205"/>
+      <c r="I127" s="159"/>
+      <c r="J127" s="159"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B128" s="204"/>
+      <c r="C128" s="205"/>
+      <c r="D128" s="205"/>
+      <c r="E128" s="207"/>
+      <c r="F128" s="207"/>
+      <c r="G128" s="205"/>
+      <c r="H128" s="205"/>
+      <c r="I128" s="162"/>
+      <c r="J128" s="162"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+    </row>
+    <row r="130" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B130" s="211" t="s">
+        <v>572</v>
+      </c>
+      <c r="C130" s="212"/>
+      <c r="D130" s="212"/>
+      <c r="E130" s="201"/>
+      <c r="F130" s="201"/>
+      <c r="G130" s="200"/>
+      <c r="H130" s="200"/>
+      <c r="I130" s="200"/>
+      <c r="J130" s="202"/>
+      <c r="K130" s="203"/>
+    </row>
+    <row r="131" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B131" s="214"/>
+      <c r="C131" s="215"/>
+      <c r="D131" s="215"/>
+      <c r="E131" s="201"/>
+      <c r="F131" s="201"/>
+      <c r="G131" s="200"/>
+      <c r="H131" s="200"/>
+      <c r="I131" s="200"/>
+      <c r="J131" s="202"/>
+      <c r="K131" s="203"/>
+    </row>
+    <row r="132" spans="2:11" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B132" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="C132" s="209" t="s">
+        <v>573</v>
+      </c>
+      <c r="D132" s="209" t="s">
+        <v>302</v>
+      </c>
+      <c r="E132" s="216" t="s">
+        <v>574</v>
+      </c>
+      <c r="F132" s="213"/>
+      <c r="G132" s="209"/>
+      <c r="H132" s="209"/>
+      <c r="I132" s="209"/>
+      <c r="J132" s="210"/>
+      <c r="K132" s="203"/>
+    </row>
+    <row r="133" spans="2:11" ht="96" x14ac:dyDescent="0.15">
+      <c r="B133" s="144" t="s">
+        <v>64</v>
+      </c>
+      <c r="C133" s="107" t="s">
+        <v>529</v>
+      </c>
+      <c r="D133" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="E133" s="108" t="s">
+        <v>575</v>
+      </c>
+      <c r="F133" s="109" t="s">
+        <v>559</v>
+      </c>
+      <c r="G133" s="99"/>
+      <c r="H133" s="99"/>
+      <c r="I133" s="99"/>
+      <c r="J133" s="102"/>
+    </row>
+    <row r="134" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="157" t="s">
+        <v>65</v>
+      </c>
+      <c r="C134" s="174" t="s">
+        <v>528</v>
+      </c>
+      <c r="D134" s="159" t="s">
+        <v>302</v>
+      </c>
+      <c r="E134" s="190" t="s">
+        <v>531</v>
+      </c>
+      <c r="F134" s="192" t="s">
+        <v>532</v>
+      </c>
+      <c r="G134" s="174"/>
+      <c r="H134" s="159"/>
+      <c r="I134" s="94"/>
+      <c r="J134" s="97"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B135" s="158"/>
+      <c r="C135" s="175"/>
+      <c r="D135" s="160"/>
+      <c r="E135" s="191"/>
+      <c r="F135" s="193"/>
+      <c r="G135" s="160"/>
+      <c r="H135" s="160"/>
+      <c r="I135" s="99"/>
+      <c r="J135" s="102"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B136" s="158"/>
+      <c r="C136" s="175"/>
+      <c r="D136" s="160"/>
+      <c r="E136" s="191"/>
+      <c r="F136" s="193"/>
+      <c r="G136" s="160"/>
+      <c r="H136" s="160"/>
+      <c r="I136" s="99"/>
+      <c r="J136" s="102"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B137" s="158"/>
+      <c r="C137" s="175"/>
+      <c r="D137" s="160"/>
+      <c r="E137" s="191"/>
+      <c r="F137" s="193"/>
+      <c r="G137" s="160"/>
+      <c r="H137" s="160"/>
+      <c r="I137" s="99"/>
+      <c r="J137" s="102"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B138" s="158"/>
+      <c r="C138" s="175"/>
+      <c r="D138" s="160"/>
+      <c r="E138" s="191"/>
+      <c r="F138" s="193"/>
+      <c r="G138" s="160"/>
+      <c r="H138" s="160"/>
+      <c r="I138" s="99"/>
+      <c r="J138" s="102"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B139" s="158"/>
+      <c r="C139" s="175"/>
+      <c r="D139" s="160"/>
+      <c r="E139" s="191"/>
+      <c r="F139" s="193"/>
+      <c r="G139" s="160"/>
+      <c r="H139" s="160"/>
+      <c r="I139" s="99"/>
+      <c r="J139" s="102"/>
+    </row>
+    <row r="140" spans="2:11" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B140" s="114"/>
+      <c r="C140" s="168" t="s">
+        <v>454</v>
+      </c>
+      <c r="D140" s="168" t="s">
+        <v>302</v>
+      </c>
+      <c r="E140" s="116" t="s">
+        <v>455</v>
+      </c>
+      <c r="F140" s="117" t="s">
+        <v>456</v>
+      </c>
+      <c r="G140" s="171"/>
+      <c r="H140" s="168"/>
+      <c r="I140" s="115"/>
+      <c r="J140" s="128"/>
+    </row>
+    <row r="141" spans="2:11" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="C123" s="153" t="s">
-        <v>529</v>
-      </c>
-      <c r="D123" s="131" t="s">
+      <c r="C141" s="169"/>
+      <c r="D141" s="169"/>
+      <c r="E141" s="120"/>
+      <c r="F141" s="121"/>
+      <c r="G141" s="169"/>
+      <c r="H141" s="169"/>
+      <c r="I141" s="119"/>
+      <c r="J141" s="130"/>
+    </row>
+    <row r="142" spans="2:11" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B142" s="122"/>
+      <c r="C142" s="170"/>
+      <c r="D142" s="170"/>
+      <c r="E142" s="124" t="s">
+        <v>457</v>
+      </c>
+      <c r="F142" s="125"/>
+      <c r="G142" s="170"/>
+      <c r="H142" s="170"/>
+      <c r="I142" s="123"/>
+      <c r="J142" s="131"/>
+    </row>
+    <row r="143" spans="2:11" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="179" t="s">
+        <v>68</v>
+      </c>
+      <c r="C143" s="168" t="s">
+        <v>458</v>
+      </c>
+      <c r="D143" s="168" t="s">
         <v>302</v>
       </c>
-      <c r="E123" s="154" t="s">
-        <v>538</v>
-      </c>
-      <c r="F123" s="152" t="s">
-        <v>563</v>
-      </c>
-      <c r="G123" s="131"/>
-      <c r="H123" s="131"/>
-      <c r="I123" s="131"/>
-      <c r="J123" s="132"/>
-    </row>
-    <row r="124" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" s="134" t="s">
-        <v>528</v>
-      </c>
-      <c r="D124" s="121" t="s">
+      <c r="E143" s="182" t="s">
+        <v>459</v>
+      </c>
+      <c r="F143" s="176" t="s">
+        <v>460</v>
+      </c>
+      <c r="G143" s="171"/>
+      <c r="H143" s="168"/>
+      <c r="I143" s="119"/>
+      <c r="J143" s="130"/>
+    </row>
+    <row r="144" spans="2:11" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="180"/>
+      <c r="C144" s="169"/>
+      <c r="D144" s="169"/>
+      <c r="E144" s="183"/>
+      <c r="F144" s="177"/>
+      <c r="G144" s="169"/>
+      <c r="H144" s="169"/>
+      <c r="I144" s="119"/>
+      <c r="J144" s="130"/>
+    </row>
+    <row r="145" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B145" s="180"/>
+      <c r="C145" s="169"/>
+      <c r="D145" s="169"/>
+      <c r="E145" s="183"/>
+      <c r="F145" s="177"/>
+      <c r="G145" s="169"/>
+      <c r="H145" s="169"/>
+      <c r="I145" s="119"/>
+      <c r="J145" s="130"/>
+    </row>
+    <row r="146" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B146" s="180"/>
+      <c r="C146" s="169"/>
+      <c r="D146" s="169"/>
+      <c r="E146" s="183"/>
+      <c r="F146" s="177"/>
+      <c r="G146" s="169"/>
+      <c r="H146" s="169"/>
+      <c r="I146" s="119"/>
+      <c r="J146" s="130"/>
+    </row>
+    <row r="147" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B147" s="181"/>
+      <c r="C147" s="170"/>
+      <c r="D147" s="170"/>
+      <c r="E147" s="186"/>
+      <c r="F147" s="178"/>
+      <c r="G147" s="170"/>
+      <c r="H147" s="170"/>
+      <c r="I147" s="119"/>
+      <c r="J147" s="130"/>
+    </row>
+    <row r="148" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B148" s="179" t="s">
+        <v>69</v>
+      </c>
+      <c r="C148" s="168" t="s">
+        <v>461</v>
+      </c>
+      <c r="D148" s="168" t="s">
         <v>302</v>
       </c>
-      <c r="E124" s="141" t="s">
-        <v>531</v>
-      </c>
-      <c r="F124" s="142" t="s">
-        <v>532</v>
-      </c>
-      <c r="G124" s="134"/>
-      <c r="H124" s="121"/>
-      <c r="I124" s="125"/>
-      <c r="J124" s="126"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B125" s="127"/>
-      <c r="C125" s="143"/>
-      <c r="D125" s="128"/>
-      <c r="E125" s="144"/>
-      <c r="F125" s="145"/>
-      <c r="G125" s="128"/>
-      <c r="H125" s="128"/>
-      <c r="I125" s="131"/>
-      <c r="J125" s="132"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B126" s="127"/>
-      <c r="C126" s="143"/>
-      <c r="D126" s="128"/>
-      <c r="E126" s="144"/>
-      <c r="F126" s="145"/>
-      <c r="G126" s="128"/>
-      <c r="H126" s="128"/>
-      <c r="I126" s="131"/>
-      <c r="J126" s="132"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B127" s="127"/>
-      <c r="C127" s="143"/>
-      <c r="D127" s="128"/>
-      <c r="E127" s="144"/>
-      <c r="F127" s="145"/>
-      <c r="G127" s="128"/>
-      <c r="H127" s="128"/>
-      <c r="I127" s="131"/>
-      <c r="J127" s="132"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B128" s="127"/>
-      <c r="C128" s="143"/>
-      <c r="D128" s="128"/>
-      <c r="E128" s="144"/>
-      <c r="F128" s="145"/>
-      <c r="G128" s="128"/>
-      <c r="H128" s="128"/>
-      <c r="I128" s="131"/>
-      <c r="J128" s="132"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B129" s="127"/>
-      <c r="C129" s="143"/>
-      <c r="D129" s="128"/>
-      <c r="E129" s="144"/>
-      <c r="F129" s="145"/>
-      <c r="G129" s="128"/>
-      <c r="H129" s="128"/>
-      <c r="I129" s="131"/>
-      <c r="J129" s="132"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B130" s="127"/>
-      <c r="C130" s="143"/>
-      <c r="D130" s="128"/>
-      <c r="E130" s="144"/>
-      <c r="F130" s="145"/>
-      <c r="G130" s="128"/>
-      <c r="H130" s="128"/>
-      <c r="I130" s="131"/>
-      <c r="J130" s="132"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B131" s="127"/>
-      <c r="C131" s="143"/>
-      <c r="D131" s="128"/>
-      <c r="E131" s="144"/>
-      <c r="F131" s="145"/>
-      <c r="G131" s="128"/>
-      <c r="H131" s="128"/>
-      <c r="I131" s="131"/>
-      <c r="J131" s="132"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B132" s="127"/>
-      <c r="C132" s="143"/>
-      <c r="D132" s="128"/>
-      <c r="E132" s="144"/>
-      <c r="F132" s="145"/>
-      <c r="G132" s="128"/>
-      <c r="H132" s="128"/>
-      <c r="I132" s="131"/>
-      <c r="J132" s="132"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B133" s="127"/>
-      <c r="C133" s="143"/>
-      <c r="D133" s="128"/>
-      <c r="E133" s="144"/>
-      <c r="F133" s="145"/>
-      <c r="G133" s="128"/>
-      <c r="H133" s="128"/>
-      <c r="I133" s="131"/>
-      <c r="J133" s="132"/>
-    </row>
-    <row r="134" spans="2:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="135"/>
-      <c r="C134" s="146"/>
-      <c r="D134" s="133"/>
-      <c r="E134" s="147"/>
-      <c r="F134" s="148"/>
-      <c r="G134" s="133"/>
-      <c r="H134" s="133"/>
-      <c r="I134" s="131"/>
-      <c r="J134" s="132"/>
-    </row>
-    <row r="135" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="159"/>
-      <c r="C135" s="160" t="s">
-        <v>454</v>
-      </c>
-      <c r="D135" s="160" t="s">
+      <c r="E148" s="182" t="s">
+        <v>462</v>
+      </c>
+      <c r="F148" s="184" t="s">
+        <v>463</v>
+      </c>
+      <c r="G148" s="171"/>
+      <c r="H148" s="168"/>
+      <c r="I148" s="115"/>
+      <c r="J148" s="128"/>
+    </row>
+    <row r="149" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B149" s="180"/>
+      <c r="C149" s="169"/>
+      <c r="D149" s="169"/>
+      <c r="E149" s="183"/>
+      <c r="F149" s="185"/>
+      <c r="G149" s="169"/>
+      <c r="H149" s="169"/>
+      <c r="I149" s="119"/>
+      <c r="J149" s="130"/>
+    </row>
+    <row r="150" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B150" s="180"/>
+      <c r="C150" s="169"/>
+      <c r="D150" s="169"/>
+      <c r="E150" s="183"/>
+      <c r="F150" s="185"/>
+      <c r="G150" s="169"/>
+      <c r="H150" s="169"/>
+      <c r="I150" s="119"/>
+      <c r="J150" s="130"/>
+    </row>
+    <row r="151" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B151" s="180"/>
+      <c r="C151" s="169"/>
+      <c r="D151" s="169"/>
+      <c r="E151" s="183"/>
+      <c r="F151" s="185"/>
+      <c r="G151" s="169"/>
+      <c r="H151" s="169"/>
+      <c r="I151" s="119"/>
+      <c r="J151" s="130"/>
+    </row>
+    <row r="152" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B152" s="181"/>
+      <c r="C152" s="169"/>
+      <c r="D152" s="169"/>
+      <c r="E152" s="183"/>
+      <c r="F152" s="185"/>
+      <c r="G152" s="170"/>
+      <c r="H152" s="170"/>
+      <c r="I152" s="123"/>
+      <c r="J152" s="131"/>
+    </row>
+    <row r="153" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B153" s="179" t="s">
+        <v>70</v>
+      </c>
+      <c r="C153" s="168" t="s">
+        <v>464</v>
+      </c>
+      <c r="D153" s="168" t="s">
         <v>302</v>
       </c>
-      <c r="E135" s="161" t="s">
-        <v>455</v>
-      </c>
-      <c r="F135" s="162" t="s">
-        <v>456</v>
-      </c>
-      <c r="G135" s="183"/>
-      <c r="H135" s="160"/>
-      <c r="I135" s="188"/>
-      <c r="J135" s="189"/>
-    </row>
-    <row r="136" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="163" t="s">
-        <v>67</v>
-      </c>
-      <c r="C136" s="164"/>
-      <c r="D136" s="164"/>
-      <c r="E136" s="165"/>
-      <c r="F136" s="166"/>
-      <c r="G136" s="164"/>
-      <c r="H136" s="164"/>
-      <c r="I136" s="191"/>
-      <c r="J136" s="192"/>
-    </row>
-    <row r="137" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="167"/>
-      <c r="C137" s="168"/>
-      <c r="D137" s="168"/>
-      <c r="E137" s="169" t="s">
-        <v>457</v>
-      </c>
-      <c r="F137" s="170"/>
-      <c r="G137" s="168"/>
-      <c r="H137" s="168"/>
-      <c r="I137" s="193"/>
-      <c r="J137" s="194"/>
-    </row>
-    <row r="138" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="171" t="s">
-        <v>68</v>
-      </c>
-      <c r="C138" s="160" t="s">
-        <v>458</v>
-      </c>
-      <c r="D138" s="160" t="s">
+      <c r="E153" s="116" t="s">
+        <v>465</v>
+      </c>
+      <c r="F153" s="127" t="s">
+        <v>466</v>
+      </c>
+      <c r="G153" s="171"/>
+      <c r="H153" s="168"/>
+      <c r="I153" s="115"/>
+      <c r="J153" s="128"/>
+    </row>
+    <row r="154" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B154" s="180"/>
+      <c r="C154" s="169"/>
+      <c r="D154" s="169"/>
+      <c r="E154" s="120"/>
+      <c r="F154" s="121"/>
+      <c r="G154" s="169"/>
+      <c r="H154" s="169"/>
+      <c r="I154" s="119"/>
+      <c r="J154" s="130"/>
+    </row>
+    <row r="155" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B155" s="180"/>
+      <c r="C155" s="169"/>
+      <c r="D155" s="169"/>
+      <c r="E155" s="120" t="s">
+        <v>467</v>
+      </c>
+      <c r="F155" s="121"/>
+      <c r="G155" s="169"/>
+      <c r="H155" s="169"/>
+      <c r="I155" s="119"/>
+      <c r="J155" s="130"/>
+    </row>
+    <row r="156" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B156" s="180"/>
+      <c r="C156" s="169"/>
+      <c r="D156" s="169"/>
+      <c r="E156" s="120" t="s">
+        <v>468</v>
+      </c>
+      <c r="F156" s="177" t="s">
+        <v>469</v>
+      </c>
+      <c r="G156" s="169"/>
+      <c r="H156" s="169"/>
+      <c r="I156" s="119"/>
+      <c r="J156" s="130"/>
+    </row>
+    <row r="157" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B157" s="180"/>
+      <c r="C157" s="169"/>
+      <c r="D157" s="169"/>
+      <c r="E157" s="120"/>
+      <c r="F157" s="177"/>
+      <c r="G157" s="169"/>
+      <c r="H157" s="169"/>
+      <c r="I157" s="119"/>
+      <c r="J157" s="130"/>
+    </row>
+    <row r="158" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B158" s="181"/>
+      <c r="C158" s="170"/>
+      <c r="D158" s="170"/>
+      <c r="E158" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="F158" s="121"/>
+      <c r="G158" s="170"/>
+      <c r="H158" s="170"/>
+      <c r="I158" s="119"/>
+      <c r="J158" s="130"/>
+    </row>
+    <row r="159" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B159" s="180" t="s">
+        <v>71</v>
+      </c>
+      <c r="C159" s="169" t="s">
+        <v>471</v>
+      </c>
+      <c r="D159" s="169" t="s">
         <v>302</v>
       </c>
-      <c r="E138" s="172" t="s">
-        <v>459</v>
-      </c>
-      <c r="F138" s="173" t="s">
-        <v>460</v>
-      </c>
-      <c r="G138" s="183"/>
-      <c r="H138" s="160"/>
-      <c r="I138" s="191"/>
-      <c r="J138" s="192"/>
-    </row>
-    <row r="139" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="174"/>
-      <c r="C139" s="164"/>
-      <c r="D139" s="164"/>
-      <c r="E139" s="175"/>
-      <c r="F139" s="176"/>
-      <c r="G139" s="164"/>
-      <c r="H139" s="164"/>
-      <c r="I139" s="191"/>
-      <c r="J139" s="192"/>
-    </row>
-    <row r="140" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="174"/>
-      <c r="C140" s="164"/>
-      <c r="D140" s="164"/>
-      <c r="E140" s="175"/>
-      <c r="F140" s="176"/>
-      <c r="G140" s="164"/>
-      <c r="H140" s="164"/>
-      <c r="I140" s="191"/>
-      <c r="J140" s="192"/>
-    </row>
-    <row r="141" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="174"/>
-      <c r="C141" s="164"/>
-      <c r="D141" s="164"/>
-      <c r="E141" s="175"/>
-      <c r="F141" s="176"/>
-      <c r="G141" s="164"/>
-      <c r="H141" s="164"/>
-      <c r="I141" s="191"/>
-      <c r="J141" s="192"/>
-    </row>
-    <row r="142" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="177"/>
-      <c r="C142" s="168"/>
-      <c r="D142" s="168"/>
-      <c r="E142" s="178"/>
-      <c r="F142" s="179"/>
-      <c r="G142" s="168"/>
-      <c r="H142" s="168"/>
-      <c r="I142" s="191"/>
-      <c r="J142" s="192"/>
-    </row>
-    <row r="143" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="171" t="s">
-        <v>69</v>
-      </c>
-      <c r="C143" s="160" t="s">
-        <v>461</v>
-      </c>
-      <c r="D143" s="160" t="s">
+      <c r="E159" s="116" t="s">
+        <v>472</v>
+      </c>
+      <c r="F159" s="127"/>
+      <c r="G159" s="171"/>
+      <c r="H159" s="168"/>
+      <c r="I159" s="115"/>
+      <c r="J159" s="128"/>
+    </row>
+    <row r="160" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B160" s="180"/>
+      <c r="C160" s="169"/>
+      <c r="D160" s="169"/>
+      <c r="E160" s="120" t="s">
+        <v>473</v>
+      </c>
+      <c r="F160" s="121"/>
+      <c r="G160" s="169"/>
+      <c r="H160" s="169"/>
+      <c r="I160" s="119"/>
+      <c r="J160" s="130"/>
+    </row>
+    <row r="161" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B161" s="180"/>
+      <c r="C161" s="169"/>
+      <c r="D161" s="169"/>
+      <c r="E161" s="120" t="s">
+        <v>474</v>
+      </c>
+      <c r="F161" s="121"/>
+      <c r="G161" s="169"/>
+      <c r="H161" s="169"/>
+      <c r="I161" s="119"/>
+      <c r="J161" s="130"/>
+    </row>
+    <row r="162" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="180"/>
+      <c r="C162" s="169"/>
+      <c r="D162" s="169"/>
+      <c r="E162" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="F162" s="121" t="s">
+        <v>476</v>
+      </c>
+      <c r="G162" s="169"/>
+      <c r="H162" s="169"/>
+      <c r="I162" s="119"/>
+      <c r="J162" s="130"/>
+    </row>
+    <row r="163" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B163" s="180"/>
+      <c r="C163" s="169"/>
+      <c r="D163" s="169"/>
+      <c r="E163" s="120" t="s">
+        <v>477</v>
+      </c>
+      <c r="F163" s="121" t="s">
+        <v>478</v>
+      </c>
+      <c r="G163" s="169"/>
+      <c r="H163" s="169"/>
+      <c r="I163" s="119"/>
+      <c r="J163" s="130"/>
+    </row>
+    <row r="164" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B164" s="180"/>
+      <c r="C164" s="169"/>
+      <c r="D164" s="169"/>
+      <c r="E164" s="120" t="s">
+        <v>479</v>
+      </c>
+      <c r="F164" s="121"/>
+      <c r="G164" s="169"/>
+      <c r="H164" s="169"/>
+      <c r="I164" s="119"/>
+      <c r="J164" s="130"/>
+    </row>
+    <row r="165" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B165" s="180"/>
+      <c r="C165" s="169"/>
+      <c r="D165" s="169"/>
+      <c r="E165" s="183" t="s">
+        <v>480</v>
+      </c>
+      <c r="F165" s="121"/>
+      <c r="G165" s="169"/>
+      <c r="H165" s="169"/>
+      <c r="I165" s="119"/>
+      <c r="J165" s="130"/>
+    </row>
+    <row r="166" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B166" s="180"/>
+      <c r="C166" s="169"/>
+      <c r="D166" s="169"/>
+      <c r="E166" s="183"/>
+      <c r="F166" s="121"/>
+      <c r="G166" s="169"/>
+      <c r="H166" s="169"/>
+      <c r="I166" s="119"/>
+      <c r="J166" s="130"/>
+    </row>
+    <row r="167" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B167" s="180"/>
+      <c r="C167" s="169"/>
+      <c r="D167" s="169"/>
+      <c r="E167" s="121" t="s">
+        <v>481</v>
+      </c>
+      <c r="F167" s="121"/>
+      <c r="G167" s="169"/>
+      <c r="H167" s="169"/>
+      <c r="I167" s="119"/>
+      <c r="J167" s="130"/>
+    </row>
+    <row r="168" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B168" s="180"/>
+      <c r="C168" s="169"/>
+      <c r="D168" s="169"/>
+      <c r="E168" s="121" t="s">
+        <v>482</v>
+      </c>
+      <c r="F168" s="121"/>
+      <c r="G168" s="169"/>
+      <c r="H168" s="169"/>
+      <c r="I168" s="119"/>
+      <c r="J168" s="130"/>
+    </row>
+    <row r="169" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B169" s="180"/>
+      <c r="C169" s="169"/>
+      <c r="D169" s="169"/>
+      <c r="E169" s="183" t="s">
+        <v>483</v>
+      </c>
+      <c r="F169" s="121"/>
+      <c r="G169" s="169"/>
+      <c r="H169" s="169"/>
+      <c r="I169" s="119"/>
+      <c r="J169" s="130"/>
+    </row>
+    <row r="170" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B170" s="180"/>
+      <c r="C170" s="169"/>
+      <c r="D170" s="169"/>
+      <c r="E170" s="183"/>
+      <c r="F170" s="121"/>
+      <c r="G170" s="169"/>
+      <c r="H170" s="169"/>
+      <c r="I170" s="119"/>
+      <c r="J170" s="130"/>
+    </row>
+    <row r="171" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B171" s="180"/>
+      <c r="C171" s="169"/>
+      <c r="D171" s="169"/>
+      <c r="E171" s="183"/>
+      <c r="F171" s="121" t="s">
+        <v>484</v>
+      </c>
+      <c r="G171" s="169"/>
+      <c r="H171" s="169"/>
+      <c r="I171" s="119"/>
+      <c r="J171" s="130"/>
+    </row>
+    <row r="172" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B172" s="181"/>
+      <c r="C172" s="170"/>
+      <c r="D172" s="170"/>
+      <c r="E172" s="186"/>
+      <c r="F172" s="125" t="s">
+        <v>485</v>
+      </c>
+      <c r="G172" s="170"/>
+      <c r="H172" s="170"/>
+      <c r="I172" s="123"/>
+      <c r="J172" s="131"/>
+    </row>
+    <row r="173" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B173" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="C173" s="171" t="s">
+        <v>486</v>
+      </c>
+      <c r="D173" s="168" t="s">
         <v>302</v>
       </c>
-      <c r="E143" s="172" t="s">
-        <v>462</v>
-      </c>
-      <c r="F143" s="180" t="s">
-        <v>463</v>
-      </c>
-      <c r="G143" s="183"/>
-      <c r="H143" s="160"/>
-      <c r="I143" s="188"/>
-      <c r="J143" s="189"/>
-    </row>
-    <row r="144" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="174"/>
-      <c r="C144" s="164"/>
-      <c r="D144" s="164"/>
-      <c r="E144" s="175"/>
-      <c r="F144" s="181"/>
-      <c r="G144" s="164"/>
-      <c r="H144" s="164"/>
-      <c r="I144" s="191"/>
-      <c r="J144" s="192"/>
-    </row>
-    <row r="145" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B145" s="174"/>
-      <c r="C145" s="164"/>
-      <c r="D145" s="164"/>
-      <c r="E145" s="175"/>
-      <c r="F145" s="181"/>
-      <c r="G145" s="164"/>
-      <c r="H145" s="164"/>
-      <c r="I145" s="191"/>
-      <c r="J145" s="192"/>
-    </row>
-    <row r="146" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="174"/>
-      <c r="C146" s="164"/>
-      <c r="D146" s="164"/>
-      <c r="E146" s="175"/>
-      <c r="F146" s="181"/>
-      <c r="G146" s="164"/>
-      <c r="H146" s="164"/>
-      <c r="I146" s="191"/>
-      <c r="J146" s="192"/>
-    </row>
-    <row r="147" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="177"/>
-      <c r="C147" s="164"/>
-      <c r="D147" s="164"/>
-      <c r="E147" s="175"/>
-      <c r="F147" s="181"/>
-      <c r="G147" s="168"/>
-      <c r="H147" s="168"/>
-      <c r="I147" s="193"/>
-      <c r="J147" s="194"/>
-    </row>
-    <row r="148" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B148" s="171" t="s">
-        <v>70</v>
-      </c>
-      <c r="C148" s="160" t="s">
-        <v>464</v>
-      </c>
-      <c r="D148" s="160" t="s">
+      <c r="E173" s="121" t="s">
+        <v>487</v>
+      </c>
+      <c r="F173" s="121" t="s">
+        <v>488</v>
+      </c>
+      <c r="G173" s="171"/>
+      <c r="H173" s="168"/>
+      <c r="I173" s="119"/>
+      <c r="J173" s="130"/>
+    </row>
+    <row r="174" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B174" s="180"/>
+      <c r="C174" s="169"/>
+      <c r="D174" s="169"/>
+      <c r="E174" s="121" t="s">
+        <v>489</v>
+      </c>
+      <c r="F174" s="121" t="s">
+        <v>490</v>
+      </c>
+      <c r="G174" s="169"/>
+      <c r="H174" s="169"/>
+      <c r="I174" s="119"/>
+      <c r="J174" s="130"/>
+    </row>
+    <row r="175" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B175" s="180"/>
+      <c r="C175" s="169"/>
+      <c r="D175" s="169"/>
+      <c r="E175" s="120" t="s">
+        <v>491</v>
+      </c>
+      <c r="F175" s="121"/>
+      <c r="G175" s="169"/>
+      <c r="H175" s="169"/>
+      <c r="I175" s="119"/>
+      <c r="J175" s="130"/>
+    </row>
+    <row r="176" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B176" s="180"/>
+      <c r="C176" s="169"/>
+      <c r="D176" s="169"/>
+      <c r="E176" s="120"/>
+      <c r="F176" s="121" t="s">
+        <v>492</v>
+      </c>
+      <c r="G176" s="169"/>
+      <c r="H176" s="169"/>
+      <c r="I176" s="119"/>
+      <c r="J176" s="130"/>
+    </row>
+    <row r="177" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B177" s="180"/>
+      <c r="C177" s="169"/>
+      <c r="D177" s="169"/>
+      <c r="E177" s="183" t="s">
+        <v>493</v>
+      </c>
+      <c r="F177" s="121"/>
+      <c r="G177" s="169"/>
+      <c r="H177" s="169"/>
+      <c r="I177" s="119"/>
+      <c r="J177" s="130"/>
+    </row>
+    <row r="178" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B178" s="180"/>
+      <c r="C178" s="169"/>
+      <c r="D178" s="169"/>
+      <c r="E178" s="183"/>
+      <c r="F178" s="121"/>
+      <c r="G178" s="169"/>
+      <c r="H178" s="169"/>
+      <c r="I178" s="119"/>
+      <c r="J178" s="130"/>
+    </row>
+    <row r="179" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="180"/>
+      <c r="C179" s="169"/>
+      <c r="D179" s="169"/>
+      <c r="E179" s="183"/>
+      <c r="F179" s="121"/>
+      <c r="G179" s="169"/>
+      <c r="H179" s="169"/>
+      <c r="I179" s="119"/>
+      <c r="J179" s="130"/>
+    </row>
+    <row r="180" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B180" s="180"/>
+      <c r="C180" s="169"/>
+      <c r="D180" s="170"/>
+      <c r="E180" s="186"/>
+      <c r="F180" s="121"/>
+      <c r="G180" s="170"/>
+      <c r="H180" s="170"/>
+      <c r="I180" s="119"/>
+      <c r="J180" s="130"/>
+    </row>
+    <row r="181" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B181" s="179" t="s">
+        <v>73</v>
+      </c>
+      <c r="C181" s="168" t="s">
+        <v>494</v>
+      </c>
+      <c r="D181" s="168" t="s">
         <v>302</v>
       </c>
-      <c r="E148" s="161" t="s">
-        <v>465</v>
-      </c>
-      <c r="F148" s="182" t="s">
-        <v>466</v>
-      </c>
-      <c r="G148" s="183"/>
-      <c r="H148" s="160"/>
-      <c r="I148" s="188"/>
-      <c r="J148" s="189"/>
-    </row>
-    <row r="149" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B149" s="174"/>
-      <c r="C149" s="164"/>
-      <c r="D149" s="164"/>
-      <c r="E149" s="165"/>
-      <c r="F149" s="166"/>
-      <c r="G149" s="164"/>
-      <c r="H149" s="164"/>
-      <c r="I149" s="191"/>
-      <c r="J149" s="192"/>
-    </row>
-    <row r="150" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B150" s="174"/>
-      <c r="C150" s="164"/>
-      <c r="D150" s="164"/>
-      <c r="E150" s="165" t="s">
-        <v>467</v>
-      </c>
-      <c r="F150" s="166"/>
-      <c r="G150" s="164"/>
-      <c r="H150" s="164"/>
-      <c r="I150" s="191"/>
-      <c r="J150" s="192"/>
-    </row>
-    <row r="151" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B151" s="174"/>
-      <c r="C151" s="164"/>
-      <c r="D151" s="164"/>
-      <c r="E151" s="165" t="s">
-        <v>468</v>
-      </c>
-      <c r="F151" s="176" t="s">
-        <v>469</v>
-      </c>
-      <c r="G151" s="164"/>
-      <c r="H151" s="164"/>
-      <c r="I151" s="191"/>
-      <c r="J151" s="192"/>
-    </row>
-    <row r="152" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="174"/>
-      <c r="C152" s="164"/>
-      <c r="D152" s="164"/>
-      <c r="E152" s="165"/>
-      <c r="F152" s="176"/>
-      <c r="G152" s="164"/>
-      <c r="H152" s="164"/>
-      <c r="I152" s="191"/>
-      <c r="J152" s="192"/>
-    </row>
-    <row r="153" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="177"/>
-      <c r="C153" s="168"/>
-      <c r="D153" s="168"/>
-      <c r="E153" s="165" t="s">
-        <v>470</v>
-      </c>
-      <c r="F153" s="166"/>
-      <c r="G153" s="168"/>
-      <c r="H153" s="168"/>
-      <c r="I153" s="191"/>
-      <c r="J153" s="192"/>
-    </row>
-    <row r="154" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B154" s="174" t="s">
-        <v>71</v>
-      </c>
-      <c r="C154" s="164" t="s">
-        <v>471</v>
-      </c>
-      <c r="D154" s="164" t="s">
+      <c r="E181" s="116" t="s">
+        <v>495</v>
+      </c>
+      <c r="F181" s="127" t="s">
+        <v>496</v>
+      </c>
+      <c r="G181" s="171"/>
+      <c r="H181" s="168"/>
+      <c r="I181" s="115"/>
+      <c r="J181" s="128"/>
+    </row>
+    <row r="182" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B182" s="180"/>
+      <c r="C182" s="169"/>
+      <c r="D182" s="169"/>
+      <c r="E182" s="120" t="s">
+        <v>497</v>
+      </c>
+      <c r="F182" s="121"/>
+      <c r="G182" s="169"/>
+      <c r="H182" s="169"/>
+      <c r="I182" s="119"/>
+      <c r="J182" s="130"/>
+    </row>
+    <row r="183" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B183" s="180"/>
+      <c r="C183" s="169"/>
+      <c r="D183" s="169"/>
+      <c r="E183" s="120" t="s">
+        <v>498</v>
+      </c>
+      <c r="F183" s="121"/>
+      <c r="G183" s="169"/>
+      <c r="H183" s="169"/>
+      <c r="I183" s="119"/>
+      <c r="J183" s="130"/>
+    </row>
+    <row r="184" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B184" s="180"/>
+      <c r="C184" s="169"/>
+      <c r="D184" s="169"/>
+      <c r="E184" s="120" t="s">
+        <v>499</v>
+      </c>
+      <c r="F184" s="121"/>
+      <c r="G184" s="169"/>
+      <c r="H184" s="169"/>
+      <c r="I184" s="119"/>
+      <c r="J184" s="130"/>
+    </row>
+    <row r="185" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B185" s="180"/>
+      <c r="C185" s="169"/>
+      <c r="D185" s="169"/>
+      <c r="E185" s="120"/>
+      <c r="F185" s="121"/>
+      <c r="G185" s="169"/>
+      <c r="H185" s="169"/>
+      <c r="I185" s="119"/>
+      <c r="J185" s="130"/>
+    </row>
+    <row r="186" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B186" s="180"/>
+      <c r="C186" s="169"/>
+      <c r="D186" s="169"/>
+      <c r="E186" s="120" t="s">
+        <v>500</v>
+      </c>
+      <c r="F186" s="121"/>
+      <c r="G186" s="169"/>
+      <c r="H186" s="169"/>
+      <c r="I186" s="119"/>
+      <c r="J186" s="130"/>
+    </row>
+    <row r="187" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B187" s="180"/>
+      <c r="C187" s="169"/>
+      <c r="D187" s="169"/>
+      <c r="E187" s="121" t="s">
+        <v>501</v>
+      </c>
+      <c r="F187" s="121"/>
+      <c r="G187" s="169"/>
+      <c r="H187" s="169"/>
+      <c r="I187" s="119"/>
+      <c r="J187" s="130"/>
+    </row>
+    <row r="188" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B188" s="180"/>
+      <c r="C188" s="169"/>
+      <c r="D188" s="169"/>
+      <c r="E188" s="120"/>
+      <c r="F188" s="121"/>
+      <c r="G188" s="169"/>
+      <c r="H188" s="169"/>
+      <c r="I188" s="119"/>
+      <c r="J188" s="130"/>
+    </row>
+    <row r="189" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B189" s="181"/>
+      <c r="C189" s="170"/>
+      <c r="D189" s="170"/>
+      <c r="E189" s="121"/>
+      <c r="F189" s="121"/>
+      <c r="G189" s="170"/>
+      <c r="H189" s="170"/>
+      <c r="I189" s="119"/>
+      <c r="J189" s="130"/>
+    </row>
+    <row r="190" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B190" s="179" t="s">
+        <v>77</v>
+      </c>
+      <c r="C190" s="168" t="s">
+        <v>502</v>
+      </c>
+      <c r="D190" s="168" t="s">
         <v>302</v>
       </c>
-      <c r="E154" s="161" t="s">
-        <v>472</v>
-      </c>
-      <c r="F154" s="182"/>
-      <c r="G154" s="183"/>
-      <c r="H154" s="160"/>
-      <c r="I154" s="188"/>
-      <c r="J154" s="189"/>
-    </row>
-    <row r="155" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B155" s="174"/>
-      <c r="C155" s="164"/>
-      <c r="D155" s="164"/>
-      <c r="E155" s="165" t="s">
-        <v>473</v>
-      </c>
-      <c r="F155" s="166"/>
-      <c r="G155" s="164"/>
-      <c r="H155" s="164"/>
-      <c r="I155" s="191"/>
-      <c r="J155" s="192"/>
-    </row>
-    <row r="156" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B156" s="174"/>
-      <c r="C156" s="164"/>
-      <c r="D156" s="164"/>
-      <c r="E156" s="165" t="s">
-        <v>474</v>
-      </c>
-      <c r="F156" s="166"/>
-      <c r="G156" s="164"/>
-      <c r="H156" s="164"/>
-      <c r="I156" s="191"/>
-      <c r="J156" s="192"/>
-    </row>
-    <row r="157" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="174"/>
-      <c r="C157" s="164"/>
-      <c r="D157" s="164"/>
-      <c r="E157" s="165" t="s">
-        <v>475</v>
-      </c>
-      <c r="F157" s="166" t="s">
-        <v>476</v>
-      </c>
-      <c r="G157" s="164"/>
-      <c r="H157" s="164"/>
-      <c r="I157" s="191"/>
-      <c r="J157" s="192"/>
-    </row>
-    <row r="158" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="174"/>
-      <c r="C158" s="164"/>
-      <c r="D158" s="164"/>
-      <c r="E158" s="165" t="s">
-        <v>477</v>
-      </c>
-      <c r="F158" s="166" t="s">
-        <v>478</v>
-      </c>
-      <c r="G158" s="164"/>
-      <c r="H158" s="164"/>
-      <c r="I158" s="191"/>
-      <c r="J158" s="192"/>
-    </row>
-    <row r="159" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="174"/>
-      <c r="C159" s="164"/>
-      <c r="D159" s="164"/>
-      <c r="E159" s="165" t="s">
-        <v>479</v>
-      </c>
-      <c r="F159" s="166"/>
-      <c r="G159" s="164"/>
-      <c r="H159" s="164"/>
-      <c r="I159" s="191"/>
-      <c r="J159" s="192"/>
-    </row>
-    <row r="160" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B160" s="174"/>
-      <c r="C160" s="164"/>
-      <c r="D160" s="164"/>
-      <c r="E160" s="175" t="s">
-        <v>480</v>
-      </c>
-      <c r="F160" s="166"/>
-      <c r="G160" s="164"/>
-      <c r="H160" s="164"/>
-      <c r="I160" s="191"/>
-      <c r="J160" s="192"/>
-    </row>
-    <row r="161" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B161" s="174"/>
-      <c r="C161" s="164"/>
-      <c r="D161" s="164"/>
-      <c r="E161" s="175"/>
-      <c r="F161" s="166"/>
-      <c r="G161" s="164"/>
-      <c r="H161" s="164"/>
-      <c r="I161" s="191"/>
-      <c r="J161" s="192"/>
-    </row>
-    <row r="162" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B162" s="174"/>
-      <c r="C162" s="164"/>
-      <c r="D162" s="164"/>
-      <c r="E162" s="166" t="s">
-        <v>481</v>
-      </c>
-      <c r="F162" s="166"/>
-      <c r="G162" s="164"/>
-      <c r="H162" s="164"/>
-      <c r="I162" s="191"/>
-      <c r="J162" s="192"/>
-    </row>
-    <row r="163" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B163" s="174"/>
-      <c r="C163" s="164"/>
-      <c r="D163" s="164"/>
-      <c r="E163" s="166" t="s">
-        <v>482</v>
-      </c>
-      <c r="F163" s="166"/>
-      <c r="G163" s="164"/>
-      <c r="H163" s="164"/>
-      <c r="I163" s="191"/>
-      <c r="J163" s="192"/>
-    </row>
-    <row r="164" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="174"/>
-      <c r="C164" s="164"/>
-      <c r="D164" s="164"/>
-      <c r="E164" s="175" t="s">
-        <v>483</v>
-      </c>
-      <c r="F164" s="166"/>
-      <c r="G164" s="164"/>
-      <c r="H164" s="164"/>
-      <c r="I164" s="191"/>
-      <c r="J164" s="192"/>
-    </row>
-    <row r="165" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="174"/>
-      <c r="C165" s="164"/>
-      <c r="D165" s="164"/>
-      <c r="E165" s="175"/>
-      <c r="F165" s="166"/>
-      <c r="G165" s="164"/>
-      <c r="H165" s="164"/>
-      <c r="I165" s="191"/>
-      <c r="J165" s="192"/>
-    </row>
-    <row r="166" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B166" s="174"/>
-      <c r="C166" s="164"/>
-      <c r="D166" s="164"/>
-      <c r="E166" s="175"/>
-      <c r="F166" s="166" t="s">
-        <v>484</v>
-      </c>
-      <c r="G166" s="164"/>
-      <c r="H166" s="164"/>
-      <c r="I166" s="191"/>
-      <c r="J166" s="192"/>
-    </row>
-    <row r="167" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B167" s="177"/>
-      <c r="C167" s="168"/>
-      <c r="D167" s="168"/>
-      <c r="E167" s="178"/>
-      <c r="F167" s="170" t="s">
-        <v>485</v>
-      </c>
-      <c r="G167" s="168"/>
-      <c r="H167" s="168"/>
-      <c r="I167" s="193"/>
-      <c r="J167" s="194"/>
-    </row>
-    <row r="168" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B168" s="171" t="s">
-        <v>63</v>
-      </c>
-      <c r="C168" s="183" t="s">
-        <v>486</v>
-      </c>
-      <c r="D168" s="160" t="s">
+      <c r="E190" s="116" t="s">
+        <v>503</v>
+      </c>
+      <c r="F190" s="127"/>
+      <c r="G190" s="171"/>
+      <c r="H190" s="168"/>
+      <c r="I190" s="115"/>
+      <c r="J190" s="128"/>
+    </row>
+    <row r="191" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B191" s="180"/>
+      <c r="C191" s="169"/>
+      <c r="D191" s="169"/>
+      <c r="E191" s="121" t="s">
+        <v>504</v>
+      </c>
+      <c r="F191" s="121" t="s">
+        <v>505</v>
+      </c>
+      <c r="G191" s="169"/>
+      <c r="H191" s="169"/>
+      <c r="I191" s="119"/>
+      <c r="J191" s="130"/>
+    </row>
+    <row r="192" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B192" s="180"/>
+      <c r="C192" s="169"/>
+      <c r="D192" s="169"/>
+      <c r="E192" s="121"/>
+      <c r="F192" s="177" t="s">
+        <v>506</v>
+      </c>
+      <c r="G192" s="169"/>
+      <c r="H192" s="169"/>
+      <c r="I192" s="119"/>
+      <c r="J192" s="130"/>
+    </row>
+    <row r="193" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B193" s="180"/>
+      <c r="C193" s="169"/>
+      <c r="D193" s="169"/>
+      <c r="E193" s="121" t="s">
+        <v>507</v>
+      </c>
+      <c r="F193" s="177"/>
+      <c r="G193" s="169"/>
+      <c r="H193" s="169"/>
+      <c r="I193" s="119"/>
+      <c r="J193" s="130"/>
+    </row>
+    <row r="194" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B194" s="180"/>
+      <c r="C194" s="169"/>
+      <c r="D194" s="169"/>
+      <c r="E194" s="121"/>
+      <c r="F194" s="177"/>
+      <c r="G194" s="169"/>
+      <c r="H194" s="169"/>
+      <c r="I194" s="119"/>
+      <c r="J194" s="130"/>
+    </row>
+    <row r="195" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B195" s="180"/>
+      <c r="C195" s="169"/>
+      <c r="D195" s="169"/>
+      <c r="E195" s="121"/>
+      <c r="F195" s="177"/>
+      <c r="G195" s="169"/>
+      <c r="H195" s="169"/>
+      <c r="I195" s="119"/>
+      <c r="J195" s="130"/>
+    </row>
+    <row r="196" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B196" s="180"/>
+      <c r="C196" s="169"/>
+      <c r="D196" s="169"/>
+      <c r="E196" s="121"/>
+      <c r="F196" s="177"/>
+      <c r="G196" s="169"/>
+      <c r="H196" s="169"/>
+      <c r="I196" s="119"/>
+      <c r="J196" s="130"/>
+    </row>
+    <row r="197" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B197" s="180"/>
+      <c r="C197" s="169"/>
+      <c r="D197" s="169"/>
+      <c r="E197" s="121"/>
+      <c r="F197" s="177"/>
+      <c r="G197" s="169"/>
+      <c r="H197" s="169"/>
+      <c r="I197" s="119"/>
+      <c r="J197" s="130"/>
+    </row>
+    <row r="198" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B198" s="180"/>
+      <c r="C198" s="169"/>
+      <c r="D198" s="169"/>
+      <c r="E198" s="121"/>
+      <c r="F198" s="177"/>
+      <c r="G198" s="170"/>
+      <c r="H198" s="170"/>
+      <c r="I198" s="119"/>
+      <c r="J198" s="130"/>
+    </row>
+    <row r="199" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B199" s="179" t="s">
+        <v>77</v>
+      </c>
+      <c r="C199" s="168" t="s">
+        <v>508</v>
+      </c>
+      <c r="D199" s="168" t="s">
         <v>302</v>
       </c>
-      <c r="E168" s="166" t="s">
-        <v>487</v>
-      </c>
-      <c r="F168" s="166" t="s">
-        <v>488</v>
-      </c>
-      <c r="G168" s="183"/>
-      <c r="H168" s="160"/>
-      <c r="I168" s="191"/>
-      <c r="J168" s="192"/>
-    </row>
-    <row r="169" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B169" s="174"/>
-      <c r="C169" s="164"/>
-      <c r="D169" s="164"/>
-      <c r="E169" s="166" t="s">
-        <v>489</v>
-      </c>
-      <c r="F169" s="166" t="s">
-        <v>490</v>
-      </c>
-      <c r="G169" s="164"/>
-      <c r="H169" s="164"/>
-      <c r="I169" s="191"/>
-      <c r="J169" s="192"/>
-    </row>
-    <row r="170" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="174"/>
-      <c r="C170" s="164"/>
-      <c r="D170" s="164"/>
-      <c r="E170" s="165" t="s">
-        <v>491</v>
-      </c>
-      <c r="F170" s="166"/>
-      <c r="G170" s="164"/>
-      <c r="H170" s="164"/>
-      <c r="I170" s="191"/>
-      <c r="J170" s="192"/>
-    </row>
-    <row r="171" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="174"/>
-      <c r="C171" s="164"/>
-      <c r="D171" s="164"/>
-      <c r="E171" s="165"/>
-      <c r="F171" s="166" t="s">
-        <v>492</v>
-      </c>
-      <c r="G171" s="164"/>
-      <c r="H171" s="164"/>
-      <c r="I171" s="191"/>
-      <c r="J171" s="192"/>
-    </row>
-    <row r="172" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B172" s="174"/>
-      <c r="C172" s="164"/>
-      <c r="D172" s="164"/>
-      <c r="E172" s="175" t="s">
-        <v>493</v>
-      </c>
-      <c r="F172" s="166"/>
-      <c r="G172" s="164"/>
-      <c r="H172" s="164"/>
-      <c r="I172" s="191"/>
-      <c r="J172" s="192"/>
-    </row>
-    <row r="173" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B173" s="174"/>
-      <c r="C173" s="164"/>
-      <c r="D173" s="164"/>
-      <c r="E173" s="175"/>
-      <c r="F173" s="166"/>
-      <c r="G173" s="164"/>
-      <c r="H173" s="164"/>
-      <c r="I173" s="191"/>
-      <c r="J173" s="192"/>
-    </row>
-    <row r="174" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B174" s="174"/>
-      <c r="C174" s="164"/>
-      <c r="D174" s="164"/>
-      <c r="E174" s="175"/>
-      <c r="F174" s="166"/>
-      <c r="G174" s="164"/>
-      <c r="H174" s="164"/>
-      <c r="I174" s="191"/>
-      <c r="J174" s="192"/>
-    </row>
-    <row r="175" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B175" s="174"/>
-      <c r="C175" s="164"/>
-      <c r="D175" s="168"/>
-      <c r="E175" s="178"/>
-      <c r="F175" s="166"/>
-      <c r="G175" s="168"/>
-      <c r="H175" s="168"/>
-      <c r="I175" s="191"/>
-      <c r="J175" s="192"/>
-    </row>
-    <row r="176" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="171" t="s">
-        <v>73</v>
-      </c>
-      <c r="C176" s="160" t="s">
-        <v>494</v>
-      </c>
-      <c r="D176" s="160" t="s">
+      <c r="E199" s="182" t="s">
+        <v>509</v>
+      </c>
+      <c r="F199" s="187" t="s">
+        <v>510</v>
+      </c>
+      <c r="G199" s="171"/>
+      <c r="H199" s="168"/>
+      <c r="I199" s="168"/>
+      <c r="J199" s="168"/>
+    </row>
+    <row r="200" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B200" s="180"/>
+      <c r="C200" s="169"/>
+      <c r="D200" s="169"/>
+      <c r="E200" s="183"/>
+      <c r="F200" s="188"/>
+      <c r="G200" s="169"/>
+      <c r="H200" s="169"/>
+      <c r="I200" s="169"/>
+      <c r="J200" s="169"/>
+    </row>
+    <row r="201" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B201" s="180"/>
+      <c r="C201" s="169"/>
+      <c r="D201" s="169"/>
+      <c r="E201" s="183"/>
+      <c r="F201" s="188"/>
+      <c r="G201" s="169"/>
+      <c r="H201" s="169"/>
+      <c r="I201" s="169"/>
+      <c r="J201" s="169"/>
+    </row>
+    <row r="202" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B202" s="180"/>
+      <c r="C202" s="169"/>
+      <c r="D202" s="169"/>
+      <c r="E202" s="120"/>
+      <c r="F202" s="188"/>
+      <c r="G202" s="169"/>
+      <c r="H202" s="169"/>
+      <c r="I202" s="169"/>
+      <c r="J202" s="169"/>
+    </row>
+    <row r="203" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B203" s="180"/>
+      <c r="C203" s="169"/>
+      <c r="D203" s="169"/>
+      <c r="E203" s="183" t="s">
+        <v>511</v>
+      </c>
+      <c r="F203" s="188"/>
+      <c r="G203" s="169"/>
+      <c r="H203" s="169"/>
+      <c r="I203" s="169"/>
+      <c r="J203" s="169"/>
+    </row>
+    <row r="204" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B204" s="180"/>
+      <c r="C204" s="169"/>
+      <c r="D204" s="169"/>
+      <c r="E204" s="183"/>
+      <c r="F204" s="188"/>
+      <c r="G204" s="169"/>
+      <c r="H204" s="169"/>
+      <c r="I204" s="169"/>
+      <c r="J204" s="169"/>
+    </row>
+    <row r="205" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B205" s="181"/>
+      <c r="C205" s="170"/>
+      <c r="D205" s="170"/>
+      <c r="E205" s="186"/>
+      <c r="F205" s="189"/>
+      <c r="G205" s="170"/>
+      <c r="H205" s="170"/>
+      <c r="I205" s="170"/>
+      <c r="J205" s="170"/>
+    </row>
+    <row r="206" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B206" s="179" t="s">
+        <v>80</v>
+      </c>
+      <c r="C206" s="168" t="s">
+        <v>502</v>
+      </c>
+      <c r="D206" s="168" t="s">
         <v>302</v>
       </c>
-      <c r="E176" s="161" t="s">
-        <v>495</v>
-      </c>
-      <c r="F176" s="182" t="s">
-        <v>496</v>
-      </c>
-      <c r="G176" s="183"/>
-      <c r="H176" s="160"/>
-      <c r="I176" s="188"/>
-      <c r="J176" s="189"/>
-    </row>
-    <row r="177" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="174"/>
-      <c r="C177" s="164"/>
-      <c r="D177" s="164"/>
-      <c r="E177" s="165" t="s">
-        <v>497</v>
-      </c>
-      <c r="F177" s="166"/>
-      <c r="G177" s="164"/>
-      <c r="H177" s="164"/>
-      <c r="I177" s="191"/>
-      <c r="J177" s="192"/>
-    </row>
-    <row r="178" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B178" s="174"/>
-      <c r="C178" s="164"/>
-      <c r="D178" s="164"/>
-      <c r="E178" s="165" t="s">
-        <v>498</v>
-      </c>
-      <c r="F178" s="166"/>
-      <c r="G178" s="164"/>
-      <c r="H178" s="164"/>
-      <c r="I178" s="191"/>
-      <c r="J178" s="192"/>
-    </row>
-    <row r="179" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B179" s="174"/>
-      <c r="C179" s="164"/>
-      <c r="D179" s="164"/>
-      <c r="E179" s="165" t="s">
-        <v>499</v>
-      </c>
-      <c r="F179" s="166"/>
-      <c r="G179" s="164"/>
-      <c r="H179" s="164"/>
-      <c r="I179" s="191"/>
-      <c r="J179" s="192"/>
-    </row>
-    <row r="180" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B180" s="174"/>
-      <c r="C180" s="164"/>
-      <c r="D180" s="164"/>
-      <c r="E180" s="165"/>
-      <c r="F180" s="166"/>
-      <c r="G180" s="164"/>
-      <c r="H180" s="164"/>
-      <c r="I180" s="191"/>
-      <c r="J180" s="192"/>
-    </row>
-    <row r="181" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B181" s="174"/>
-      <c r="C181" s="164"/>
-      <c r="D181" s="164"/>
-      <c r="E181" s="165" t="s">
-        <v>500</v>
-      </c>
-      <c r="F181" s="166"/>
-      <c r="G181" s="164"/>
-      <c r="H181" s="164"/>
-      <c r="I181" s="191"/>
-      <c r="J181" s="192"/>
-    </row>
-    <row r="182" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="174"/>
-      <c r="C182" s="164"/>
-      <c r="D182" s="164"/>
-      <c r="E182" s="166" t="s">
-        <v>501</v>
-      </c>
-      <c r="F182" s="166"/>
-      <c r="G182" s="164"/>
-      <c r="H182" s="164"/>
-      <c r="I182" s="191"/>
-      <c r="J182" s="192"/>
-    </row>
-    <row r="183" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B183" s="174"/>
-      <c r="C183" s="164"/>
-      <c r="D183" s="164"/>
-      <c r="E183" s="165"/>
-      <c r="F183" s="166"/>
-      <c r="G183" s="164"/>
-      <c r="H183" s="164"/>
-      <c r="I183" s="191"/>
-      <c r="J183" s="192"/>
-    </row>
-    <row r="184" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B184" s="177"/>
-      <c r="C184" s="168"/>
-      <c r="D184" s="168"/>
-      <c r="E184" s="166"/>
-      <c r="F184" s="166"/>
-      <c r="G184" s="168"/>
-      <c r="H184" s="168"/>
-      <c r="I184" s="191"/>
-      <c r="J184" s="192"/>
-    </row>
-    <row r="185" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B185" s="171" t="s">
-        <v>77</v>
-      </c>
-      <c r="C185" s="160" t="s">
-        <v>502</v>
-      </c>
-      <c r="D185" s="160" t="s">
+      <c r="E206" s="182" t="s">
+        <v>512</v>
+      </c>
+      <c r="F206" s="127"/>
+      <c r="G206" s="171"/>
+      <c r="H206" s="168"/>
+      <c r="I206" s="115"/>
+      <c r="J206" s="128"/>
+    </row>
+    <row r="207" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B207" s="180"/>
+      <c r="C207" s="169"/>
+      <c r="D207" s="169"/>
+      <c r="E207" s="183"/>
+      <c r="F207" s="177" t="s">
+        <v>513</v>
+      </c>
+      <c r="G207" s="169"/>
+      <c r="H207" s="169"/>
+      <c r="I207" s="119"/>
+      <c r="J207" s="130"/>
+    </row>
+    <row r="208" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B208" s="180"/>
+      <c r="C208" s="169"/>
+      <c r="D208" s="169"/>
+      <c r="E208" s="183"/>
+      <c r="F208" s="177"/>
+      <c r="G208" s="169"/>
+      <c r="H208" s="169"/>
+      <c r="I208" s="119"/>
+      <c r="J208" s="130"/>
+    </row>
+    <row r="209" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B209" s="180"/>
+      <c r="C209" s="169"/>
+      <c r="D209" s="169"/>
+      <c r="E209" s="126" t="s">
+        <v>507</v>
+      </c>
+      <c r="F209" s="177"/>
+      <c r="G209" s="169"/>
+      <c r="H209" s="169"/>
+      <c r="I209" s="119"/>
+      <c r="J209" s="130"/>
+    </row>
+    <row r="210" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B210" s="180"/>
+      <c r="C210" s="169"/>
+      <c r="D210" s="169"/>
+      <c r="E210" s="126" t="s">
+        <v>514</v>
+      </c>
+      <c r="F210" s="177"/>
+      <c r="G210" s="169"/>
+      <c r="H210" s="169"/>
+      <c r="I210" s="119"/>
+      <c r="J210" s="130"/>
+    </row>
+    <row r="211" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B211" s="180"/>
+      <c r="C211" s="169"/>
+      <c r="D211" s="169"/>
+      <c r="E211" s="126"/>
+      <c r="F211" s="177"/>
+      <c r="G211" s="169"/>
+      <c r="H211" s="169"/>
+      <c r="I211" s="119"/>
+      <c r="J211" s="130"/>
+    </row>
+    <row r="212" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B212" s="180"/>
+      <c r="C212" s="169"/>
+      <c r="D212" s="169"/>
+      <c r="E212" s="126"/>
+      <c r="F212" s="177"/>
+      <c r="G212" s="169"/>
+      <c r="H212" s="169"/>
+      <c r="I212" s="119"/>
+      <c r="J212" s="130"/>
+    </row>
+    <row r="213" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B213" s="180"/>
+      <c r="C213" s="169"/>
+      <c r="D213" s="169"/>
+      <c r="E213" s="121"/>
+      <c r="F213" s="177"/>
+      <c r="G213" s="169"/>
+      <c r="H213" s="169"/>
+      <c r="I213" s="119"/>
+      <c r="J213" s="130"/>
+    </row>
+    <row r="214" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B214" s="181"/>
+      <c r="C214" s="170"/>
+      <c r="D214" s="169"/>
+      <c r="E214" s="121"/>
+      <c r="F214" s="177"/>
+      <c r="G214" s="170"/>
+      <c r="H214" s="170"/>
+      <c r="I214" s="119"/>
+      <c r="J214" s="130"/>
+    </row>
+    <row r="215" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B215" s="179" t="s">
+        <v>82</v>
+      </c>
+      <c r="C215" s="168" t="s">
+        <v>515</v>
+      </c>
+      <c r="D215" s="168" t="s">
         <v>302</v>
       </c>
-      <c r="E185" s="161" t="s">
-        <v>503</v>
-      </c>
-      <c r="F185" s="182"/>
-      <c r="G185" s="183"/>
-      <c r="H185" s="160"/>
-      <c r="I185" s="188"/>
-      <c r="J185" s="189"/>
-    </row>
-    <row r="186" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B186" s="174"/>
-      <c r="C186" s="164"/>
-      <c r="D186" s="164"/>
-      <c r="E186" s="166" t="s">
-        <v>504</v>
-      </c>
-      <c r="F186" s="166" t="s">
-        <v>505</v>
-      </c>
-      <c r="G186" s="164"/>
-      <c r="H186" s="164"/>
-      <c r="I186" s="191"/>
-      <c r="J186" s="192"/>
-    </row>
-    <row r="187" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B187" s="174"/>
-      <c r="C187" s="164"/>
-      <c r="D187" s="164"/>
-      <c r="E187" s="166"/>
-      <c r="F187" s="176" t="s">
-        <v>506</v>
-      </c>
-      <c r="G187" s="164"/>
-      <c r="H187" s="164"/>
-      <c r="I187" s="191"/>
-      <c r="J187" s="192"/>
-    </row>
-    <row r="188" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B188" s="174"/>
-      <c r="C188" s="164"/>
-      <c r="D188" s="164"/>
-      <c r="E188" s="166" t="s">
-        <v>507</v>
-      </c>
-      <c r="F188" s="176"/>
-      <c r="G188" s="164"/>
-      <c r="H188" s="164"/>
-      <c r="I188" s="191"/>
-      <c r="J188" s="192"/>
-    </row>
-    <row r="189" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B189" s="174"/>
-      <c r="C189" s="164"/>
-      <c r="D189" s="164"/>
-      <c r="E189" s="166"/>
-      <c r="F189" s="176"/>
-      <c r="G189" s="164"/>
-      <c r="H189" s="164"/>
-      <c r="I189" s="191"/>
-      <c r="J189" s="192"/>
-    </row>
-    <row r="190" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B190" s="174"/>
-      <c r="C190" s="164"/>
-      <c r="D190" s="164"/>
-      <c r="E190" s="166"/>
-      <c r="F190" s="176"/>
-      <c r="G190" s="164"/>
-      <c r="H190" s="164"/>
-      <c r="I190" s="191"/>
-      <c r="J190" s="192"/>
-    </row>
-    <row r="191" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B191" s="174"/>
-      <c r="C191" s="164"/>
-      <c r="D191" s="164"/>
-      <c r="E191" s="166"/>
-      <c r="F191" s="176"/>
-      <c r="G191" s="164"/>
-      <c r="H191" s="164"/>
-      <c r="I191" s="191"/>
-      <c r="J191" s="192"/>
-    </row>
-    <row r="192" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B192" s="174"/>
-      <c r="C192" s="164"/>
-      <c r="D192" s="164"/>
-      <c r="E192" s="166"/>
-      <c r="F192" s="176"/>
-      <c r="G192" s="164"/>
-      <c r="H192" s="164"/>
-      <c r="I192" s="191"/>
-      <c r="J192" s="192"/>
-    </row>
-    <row r="193" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B193" s="174"/>
-      <c r="C193" s="164"/>
-      <c r="D193" s="164"/>
-      <c r="E193" s="166"/>
-      <c r="F193" s="176"/>
-      <c r="G193" s="168"/>
-      <c r="H193" s="168"/>
-      <c r="I193" s="191"/>
-      <c r="J193" s="192"/>
-    </row>
-    <row r="194" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B194" s="171" t="s">
-        <v>77</v>
-      </c>
-      <c r="C194" s="160" t="s">
-        <v>508</v>
-      </c>
-      <c r="D194" s="160" t="s">
-        <v>302</v>
-      </c>
-      <c r="E194" s="172" t="s">
-        <v>509</v>
-      </c>
-      <c r="F194" s="184" t="s">
+      <c r="E215" s="182" t="s">
+        <v>516</v>
+      </c>
+      <c r="F215" s="127" t="s">
         <v>510</v>
       </c>
-      <c r="G194" s="183"/>
-      <c r="H194" s="160"/>
-      <c r="I194" s="160"/>
-      <c r="J194" s="160"/>
-    </row>
-    <row r="195" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B195" s="174"/>
-      <c r="C195" s="164"/>
-      <c r="D195" s="164"/>
-      <c r="E195" s="175"/>
-      <c r="F195" s="185"/>
-      <c r="G195" s="164"/>
-      <c r="H195" s="164"/>
-      <c r="I195" s="164"/>
-      <c r="J195" s="164"/>
-    </row>
-    <row r="196" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B196" s="174"/>
-      <c r="C196" s="164"/>
-      <c r="D196" s="164"/>
-      <c r="E196" s="175"/>
-      <c r="F196" s="185"/>
-      <c r="G196" s="164"/>
-      <c r="H196" s="164"/>
-      <c r="I196" s="164"/>
-      <c r="J196" s="164"/>
-    </row>
-    <row r="197" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B197" s="174"/>
-      <c r="C197" s="164"/>
-      <c r="D197" s="164"/>
-      <c r="E197" s="165"/>
-      <c r="F197" s="185"/>
-      <c r="G197" s="164"/>
-      <c r="H197" s="164"/>
-      <c r="I197" s="164"/>
-      <c r="J197" s="164"/>
-    </row>
-    <row r="198" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B198" s="174"/>
-      <c r="C198" s="164"/>
-      <c r="D198" s="164"/>
-      <c r="E198" s="175" t="s">
-        <v>511</v>
-      </c>
-      <c r="F198" s="185"/>
-      <c r="G198" s="164"/>
-      <c r="H198" s="164"/>
-      <c r="I198" s="164"/>
-      <c r="J198" s="164"/>
-    </row>
-    <row r="199" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B199" s="174"/>
-      <c r="C199" s="164"/>
-      <c r="D199" s="164"/>
-      <c r="E199" s="175"/>
-      <c r="F199" s="185"/>
-      <c r="G199" s="164"/>
-      <c r="H199" s="164"/>
-      <c r="I199" s="164"/>
-      <c r="J199" s="164"/>
-    </row>
-    <row r="200" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B200" s="177"/>
-      <c r="C200" s="168"/>
-      <c r="D200" s="168"/>
-      <c r="E200" s="178"/>
-      <c r="F200" s="186"/>
-      <c r="G200" s="168"/>
-      <c r="H200" s="168"/>
-      <c r="I200" s="168"/>
-      <c r="J200" s="168"/>
-    </row>
-    <row r="201" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B201" s="171" t="s">
-        <v>80</v>
-      </c>
-      <c r="C201" s="160" t="s">
-        <v>502</v>
-      </c>
-      <c r="D201" s="160" t="s">
-        <v>302</v>
-      </c>
-      <c r="E201" s="172" t="s">
-        <v>512</v>
-      </c>
-      <c r="F201" s="182"/>
-      <c r="G201" s="183"/>
-      <c r="H201" s="160"/>
-      <c r="I201" s="188"/>
-      <c r="J201" s="189"/>
-    </row>
-    <row r="202" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B202" s="174"/>
-      <c r="C202" s="164"/>
-      <c r="D202" s="164"/>
-      <c r="E202" s="175"/>
-      <c r="F202" s="176" t="s">
-        <v>513</v>
-      </c>
-      <c r="G202" s="164"/>
-      <c r="H202" s="164"/>
-      <c r="I202" s="191"/>
-      <c r="J202" s="192"/>
-    </row>
-    <row r="203" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B203" s="174"/>
-      <c r="C203" s="164"/>
-      <c r="D203" s="164"/>
-      <c r="E203" s="175"/>
-      <c r="F203" s="176"/>
-      <c r="G203" s="164"/>
-      <c r="H203" s="164"/>
-      <c r="I203" s="191"/>
-      <c r="J203" s="192"/>
-    </row>
-    <row r="204" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B204" s="174"/>
-      <c r="C204" s="164"/>
-      <c r="D204" s="164"/>
-      <c r="E204" s="187" t="s">
-        <v>507</v>
-      </c>
-      <c r="F204" s="176"/>
-      <c r="G204" s="164"/>
-      <c r="H204" s="164"/>
-      <c r="I204" s="191"/>
-      <c r="J204" s="192"/>
-    </row>
-    <row r="205" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B205" s="174"/>
-      <c r="C205" s="164"/>
-      <c r="D205" s="164"/>
-      <c r="E205" s="187" t="s">
-        <v>514</v>
-      </c>
-      <c r="F205" s="176"/>
-      <c r="G205" s="164"/>
-      <c r="H205" s="164"/>
-      <c r="I205" s="191"/>
-      <c r="J205" s="192"/>
-    </row>
-    <row r="206" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B206" s="174"/>
-      <c r="C206" s="164"/>
-      <c r="D206" s="164"/>
-      <c r="E206" s="187"/>
-      <c r="F206" s="176"/>
-      <c r="G206" s="164"/>
-      <c r="H206" s="164"/>
-      <c r="I206" s="191"/>
-      <c r="J206" s="192"/>
-    </row>
-    <row r="207" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B207" s="174"/>
-      <c r="C207" s="164"/>
-      <c r="D207" s="164"/>
-      <c r="E207" s="187"/>
-      <c r="F207" s="176"/>
-      <c r="G207" s="164"/>
-      <c r="H207" s="164"/>
-      <c r="I207" s="191"/>
-      <c r="J207" s="192"/>
-    </row>
-    <row r="208" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B208" s="174"/>
-      <c r="C208" s="164"/>
-      <c r="D208" s="164"/>
-      <c r="E208" s="166"/>
-      <c r="F208" s="176"/>
-      <c r="G208" s="164"/>
-      <c r="H208" s="164"/>
-      <c r="I208" s="191"/>
-      <c r="J208" s="192"/>
-    </row>
-    <row r="209" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B209" s="177"/>
-      <c r="C209" s="168"/>
-      <c r="D209" s="164"/>
-      <c r="E209" s="166"/>
-      <c r="F209" s="176"/>
-      <c r="G209" s="168"/>
-      <c r="H209" s="168"/>
-      <c r="I209" s="191"/>
-      <c r="J209" s="192"/>
-    </row>
-    <row r="210" spans="2:10" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B210" s="171" t="s">
-        <v>82</v>
-      </c>
-      <c r="C210" s="160" t="s">
-        <v>515</v>
-      </c>
-      <c r="D210" s="160" t="s">
-        <v>302</v>
-      </c>
-      <c r="E210" s="172" t="s">
-        <v>516</v>
-      </c>
-      <c r="F210" s="182" t="s">
-        <v>510</v>
-      </c>
-      <c r="G210" s="183"/>
-      <c r="H210" s="160"/>
-      <c r="I210" s="160"/>
-      <c r="J210" s="160"/>
-    </row>
-    <row r="211" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B211" s="174"/>
-      <c r="C211" s="164"/>
-      <c r="D211" s="164"/>
-      <c r="E211" s="175"/>
-      <c r="F211" s="166"/>
-      <c r="G211" s="164"/>
-      <c r="H211" s="164"/>
-      <c r="I211" s="164"/>
-      <c r="J211" s="164"/>
-    </row>
-    <row r="212" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B212" s="174"/>
-      <c r="C212" s="164"/>
-      <c r="D212" s="164"/>
-      <c r="E212" s="175"/>
-      <c r="F212" s="166"/>
-      <c r="G212" s="164"/>
-      <c r="H212" s="164"/>
-      <c r="I212" s="164"/>
-      <c r="J212" s="164"/>
-    </row>
-    <row r="213" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B213" s="174"/>
-      <c r="C213" s="164"/>
-      <c r="D213" s="164"/>
-      <c r="E213" s="165"/>
-      <c r="F213" s="166"/>
-      <c r="G213" s="164"/>
-      <c r="H213" s="164"/>
-      <c r="I213" s="164"/>
-      <c r="J213" s="164"/>
-    </row>
-    <row r="214" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B214" s="174"/>
-      <c r="C214" s="164"/>
-      <c r="D214" s="164"/>
-      <c r="E214" s="165" t="s">
-        <v>517</v>
-      </c>
-      <c r="F214" s="166"/>
-      <c r="G214" s="164"/>
-      <c r="H214" s="164"/>
-      <c r="I214" s="164"/>
-      <c r="J214" s="164"/>
-    </row>
-    <row r="215" spans="2:10" s="190" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B215" s="177"/>
-      <c r="C215" s="168"/>
-      <c r="D215" s="168"/>
-      <c r="E215" s="169" t="s">
-        <v>518</v>
-      </c>
-      <c r="F215" s="170"/>
-      <c r="G215" s="168"/>
+      <c r="G215" s="171"/>
       <c r="H215" s="168"/>
       <c r="I215" s="168"/>
       <c r="J215" s="168"/>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B216" s="112"/>
-      <c r="C216" s="46"/>
-      <c r="D216" s="113"/>
-      <c r="E216" s="12"/>
-      <c r="F216" s="115"/>
-      <c r="G216" s="47"/>
-      <c r="H216" s="114"/>
-      <c r="I216" s="33"/>
-      <c r="J216" s="115"/>
-    </row>
-    <row r="217" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B217" s="78" t="s">
+    <row r="216" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B216" s="180"/>
+      <c r="C216" s="169"/>
+      <c r="D216" s="169"/>
+      <c r="E216" s="183"/>
+      <c r="F216" s="121"/>
+      <c r="G216" s="169"/>
+      <c r="H216" s="169"/>
+      <c r="I216" s="169"/>
+      <c r="J216" s="169"/>
+    </row>
+    <row r="217" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B217" s="180"/>
+      <c r="C217" s="169"/>
+      <c r="D217" s="169"/>
+      <c r="E217" s="183"/>
+      <c r="F217" s="121"/>
+      <c r="G217" s="169"/>
+      <c r="H217" s="169"/>
+      <c r="I217" s="169"/>
+      <c r="J217" s="169"/>
+    </row>
+    <row r="218" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B218" s="180"/>
+      <c r="C218" s="169"/>
+      <c r="D218" s="169"/>
+      <c r="E218" s="120"/>
+      <c r="F218" s="121"/>
+      <c r="G218" s="169"/>
+      <c r="H218" s="169"/>
+      <c r="I218" s="169"/>
+      <c r="J218" s="169"/>
+    </row>
+    <row r="219" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B219" s="180"/>
+      <c r="C219" s="169"/>
+      <c r="D219" s="169"/>
+      <c r="E219" s="120" t="s">
+        <v>517</v>
+      </c>
+      <c r="F219" s="121"/>
+      <c r="G219" s="169"/>
+      <c r="H219" s="169"/>
+      <c r="I219" s="169"/>
+      <c r="J219" s="169"/>
+    </row>
+    <row r="220" spans="2:10" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B220" s="181"/>
+      <c r="C220" s="170"/>
+      <c r="D220" s="170"/>
+      <c r="E220" s="124" t="s">
+        <v>518</v>
+      </c>
+      <c r="F220" s="125"/>
+      <c r="G220" s="170"/>
+      <c r="H220" s="170"/>
+      <c r="I220" s="170"/>
+      <c r="J220" s="170"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B221" s="45"/>
+      <c r="C221" s="46"/>
+      <c r="D221" s="47"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="8"/>
+      <c r="G221" s="47"/>
+      <c r="H221" s="33"/>
+      <c r="I221" s="33"/>
+      <c r="J221" s="8"/>
+    </row>
+    <row r="222" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B222" s="78" t="s">
+        <v>541</v>
+      </c>
+      <c r="C222" s="79"/>
+      <c r="D222" s="110"/>
+      <c r="E222" s="111"/>
+      <c r="F222" s="8"/>
+      <c r="G222" s="47"/>
+      <c r="H222" s="33"/>
+      <c r="I222" s="33"/>
+      <c r="J222" s="8"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B223" s="45"/>
+      <c r="C223" s="46"/>
+      <c r="D223" s="47"/>
+      <c r="E223" s="12"/>
+      <c r="F223" s="8"/>
+      <c r="G223" s="47"/>
+      <c r="H223" s="33"/>
+      <c r="I223" s="33"/>
+      <c r="J223" s="8"/>
+    </row>
+    <row r="224" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B224" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E224" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F224" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G224" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="H224" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I224" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J224" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B225" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C225" s="209" t="s">
+        <v>573</v>
+      </c>
+      <c r="D225" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="E225" s="216" t="s">
+        <v>574</v>
+      </c>
+      <c r="F225" s="135"/>
+      <c r="G225" s="41"/>
+      <c r="H225" s="42"/>
+      <c r="I225" s="42"/>
+      <c r="J225" s="43"/>
+    </row>
+    <row r="226" spans="2:10" ht="48" x14ac:dyDescent="0.15">
+      <c r="B226" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C226" s="133" t="s">
+        <v>534</v>
+      </c>
+      <c r="D226" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="E226" s="134" t="s">
+        <v>535</v>
+      </c>
+      <c r="F226" s="137" t="s">
+        <v>538</v>
+      </c>
+      <c r="G226" s="41"/>
+      <c r="H226" s="42"/>
+      <c r="I226" s="42"/>
+      <c r="J226" s="43"/>
+    </row>
+    <row r="227" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B227" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C227" s="139" t="s">
+        <v>536</v>
+      </c>
+      <c r="D227" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E227" s="136" t="s">
+        <v>556</v>
+      </c>
+      <c r="F227" s="138" t="s">
+        <v>560</v>
+      </c>
+      <c r="G227" s="51"/>
+      <c r="H227" s="55"/>
+      <c r="I227" s="55"/>
+      <c r="J227" s="53"/>
+    </row>
+    <row r="228" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B228" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C228" s="50" t="s">
+        <v>539</v>
+      </c>
+      <c r="D228" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E228" s="141" t="s">
+        <v>555</v>
+      </c>
+      <c r="F228" s="53" t="s">
+        <v>540</v>
+      </c>
+      <c r="G228" s="51"/>
+      <c r="H228" s="55"/>
+      <c r="I228" s="55"/>
+      <c r="J228" s="53"/>
+    </row>
+    <row r="229" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B229" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C229" s="50" t="s">
+        <v>542</v>
+      </c>
+      <c r="D229" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E229" s="141" t="s">
+        <v>554</v>
+      </c>
+      <c r="F229" s="53" t="s">
+        <v>543</v>
+      </c>
+      <c r="G229" s="51"/>
+      <c r="H229" s="55"/>
+      <c r="I229" s="55"/>
+      <c r="J229" s="53"/>
+    </row>
+    <row r="230" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B230" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C230" s="50" t="s">
+        <v>544</v>
+      </c>
+      <c r="D230" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E230" s="141" t="s">
+        <v>553</v>
+      </c>
+      <c r="F230" s="53" t="s">
         <v>545</v>
       </c>
-      <c r="C217" s="79"/>
-      <c r="D217" s="155"/>
-      <c r="E217" s="156"/>
-      <c r="F217" s="8"/>
-      <c r="G217" s="47"/>
-      <c r="H217" s="33"/>
-      <c r="I217" s="33"/>
-      <c r="J217" s="8"/>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B218" s="45"/>
-      <c r="C218" s="46"/>
-      <c r="D218" s="47"/>
-      <c r="E218" s="12"/>
-      <c r="F218" s="8"/>
-      <c r="G218" s="47"/>
-      <c r="H218" s="33"/>
-      <c r="I218" s="33"/>
-      <c r="J218" s="8"/>
-    </row>
-    <row r="219" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B219" s="27" t="s">
+      <c r="G230" s="51"/>
+      <c r="H230" s="55"/>
+      <c r="I230" s="55"/>
+      <c r="J230" s="53"/>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B231" s="45"/>
+      <c r="C231" s="46"/>
+      <c r="D231" s="47"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="8"/>
+      <c r="G231" s="47"/>
+      <c r="H231" s="33"/>
+      <c r="I231" s="33"/>
+      <c r="J231" s="8"/>
+    </row>
+    <row r="232" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B232" s="78" t="s">
+        <v>546</v>
+      </c>
+      <c r="C232" s="79"/>
+      <c r="D232" s="47"/>
+      <c r="E232" s="12"/>
+      <c r="F232" s="8"/>
+      <c r="G232" s="47"/>
+      <c r="H232" s="33"/>
+      <c r="I232" s="33"/>
+      <c r="J232" s="8"/>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B233" s="45"/>
+      <c r="C233" s="46"/>
+      <c r="D233" s="47"/>
+      <c r="E233" s="12"/>
+      <c r="F233" s="8"/>
+      <c r="G233" s="47"/>
+      <c r="H233" s="33"/>
+      <c r="I233" s="33"/>
+      <c r="J233" s="8"/>
+    </row>
+    <row r="234" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B234" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C219" s="9" t="s">
+      <c r="C234" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D219" s="9" t="s">
+      <c r="D234" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E219" s="10" t="s">
+      <c r="E234" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F219" s="9" t="s">
+      <c r="F234" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G219" s="11" t="s">
+      <c r="G234" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="H219" s="9" t="s">
+      <c r="H234" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I219" s="9" t="s">
+      <c r="I234" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J219" s="9" t="s">
+      <c r="J234" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B220" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="C220" s="196" t="s">
-        <v>535</v>
-      </c>
-      <c r="D220" s="42" t="s">
+    <row r="235" spans="2:10" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B235" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C235" s="209" t="s">
+        <v>573</v>
+      </c>
+      <c r="D235" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="E220" s="204" t="s">
-        <v>534</v>
-      </c>
-      <c r="F220" s="198" t="s">
-        <v>536</v>
-      </c>
-      <c r="G220" s="41"/>
-      <c r="H220" s="42"/>
-      <c r="I220" s="42"/>
-      <c r="J220" s="43"/>
-    </row>
-    <row r="221" spans="2:10" ht="48" x14ac:dyDescent="0.15">
-      <c r="B221" s="32" t="s">
+      <c r="E235" s="216" t="s">
+        <v>574</v>
+      </c>
+      <c r="F235" s="135" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B236" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C221" s="196" t="s">
-        <v>537</v>
-      </c>
-      <c r="D221" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="E221" s="197" t="s">
-        <v>539</v>
-      </c>
-      <c r="F221" s="200" t="s">
-        <v>542</v>
-      </c>
-      <c r="G221" s="41"/>
-      <c r="H221" s="42"/>
-      <c r="I221" s="42"/>
-      <c r="J221" s="43"/>
-    </row>
-    <row r="222" spans="2:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="B222" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C222" s="202" t="s">
-        <v>540</v>
-      </c>
-      <c r="D222" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="E222" s="199" t="s">
-        <v>560</v>
-      </c>
-      <c r="F222" s="201" t="s">
-        <v>564</v>
-      </c>
-      <c r="G222" s="51"/>
-      <c r="H222" s="55"/>
-      <c r="I222" s="55"/>
-      <c r="J222" s="53"/>
-    </row>
-    <row r="223" spans="2:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="B223" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C223" s="50" t="s">
-        <v>543</v>
-      </c>
-      <c r="D223" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="E223" s="205" t="s">
-        <v>559</v>
-      </c>
-      <c r="F223" s="53" t="s">
-        <v>544</v>
-      </c>
-      <c r="G223" s="51"/>
-      <c r="H223" s="55"/>
-      <c r="I223" s="55"/>
-      <c r="J223" s="53"/>
-    </row>
-    <row r="224" spans="2:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="B224" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C224" s="50" t="s">
-        <v>546</v>
-      </c>
-      <c r="D224" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="E224" s="205" t="s">
-        <v>558</v>
-      </c>
-      <c r="F224" s="53" t="s">
+      <c r="C236" s="139" t="s">
         <v>547</v>
-      </c>
-      <c r="G224" s="51"/>
-      <c r="H224" s="55"/>
-      <c r="I224" s="55"/>
-      <c r="J224" s="53"/>
-    </row>
-    <row r="225" spans="2:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="B225" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C225" s="50" t="s">
-        <v>548</v>
-      </c>
-      <c r="D225" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="E225" s="205" t="s">
-        <v>557</v>
-      </c>
-      <c r="F225" s="53" t="s">
-        <v>549</v>
-      </c>
-      <c r="G225" s="51"/>
-      <c r="H225" s="55"/>
-      <c r="I225" s="55"/>
-      <c r="J225" s="53"/>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B226" s="112"/>
-      <c r="C226" s="46"/>
-      <c r="D226" s="113"/>
-      <c r="E226" s="12"/>
-      <c r="F226" s="115"/>
-      <c r="G226" s="47"/>
-      <c r="H226" s="114"/>
-      <c r="I226" s="33"/>
-      <c r="J226" s="115"/>
-    </row>
-    <row r="227" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B227" s="78" t="s">
-        <v>550</v>
-      </c>
-      <c r="C227" s="79"/>
-      <c r="D227" s="47"/>
-      <c r="E227" s="12"/>
-      <c r="F227" s="8"/>
-      <c r="G227" s="47"/>
-      <c r="H227" s="33"/>
-      <c r="I227" s="33"/>
-      <c r="J227" s="8"/>
-    </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B228" s="45"/>
-      <c r="C228" s="46"/>
-      <c r="D228" s="47"/>
-      <c r="E228" s="12"/>
-      <c r="F228" s="8"/>
-      <c r="G228" s="47"/>
-      <c r="H228" s="33"/>
-      <c r="I228" s="33"/>
-      <c r="J228" s="8"/>
-    </row>
-    <row r="229" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B229" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E229" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F229" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G229" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="H229" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I229" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J229" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="230" spans="2:10" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B230" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C230" s="196" t="s">
-        <v>535</v>
-      </c>
-      <c r="D230" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="E230" s="204" t="s">
-        <v>534</v>
-      </c>
-      <c r="F230" s="198" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="231" spans="2:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="B231" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C231" s="202" t="s">
-        <v>551</v>
-      </c>
-      <c r="D231" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="E231" s="199" t="s">
-        <v>555</v>
-      </c>
-      <c r="F231" s="53" t="s">
-        <v>565</v>
-      </c>
-      <c r="G231" s="51"/>
-      <c r="H231" s="55"/>
-      <c r="I231" s="55"/>
-      <c r="J231" s="53"/>
-    </row>
-    <row r="232" spans="2:10" ht="108" x14ac:dyDescent="0.15">
-      <c r="B232" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="C232" s="202" t="s">
-        <v>552</v>
-      </c>
-      <c r="D232" s="55" t="s">
-        <v>530</v>
-      </c>
-      <c r="E232" s="199" t="s">
-        <v>556</v>
-      </c>
-      <c r="F232" s="201" t="s">
-        <v>553</v>
-      </c>
-      <c r="G232" s="51"/>
-      <c r="H232" s="55"/>
-      <c r="I232" s="55"/>
-      <c r="J232" s="53"/>
-    </row>
-    <row r="233" spans="2:10" ht="60" x14ac:dyDescent="0.15">
-      <c r="B233" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C233" s="195" t="s">
-        <v>554</v>
-      </c>
-      <c r="D233" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E233" s="203" t="s">
-        <v>561</v>
-      </c>
-      <c r="F233" s="206" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="234" spans="2:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="B234" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C234" s="202" t="s">
-        <v>572</v>
-      </c>
-      <c r="D234" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="E234" s="199" t="s">
-        <v>569</v>
-      </c>
-      <c r="F234" s="53" t="s">
-        <v>570</v>
-      </c>
-      <c r="G234" s="51"/>
-      <c r="H234" s="55"/>
-      <c r="I234" s="55"/>
-      <c r="J234" s="53"/>
-    </row>
-    <row r="235" spans="2:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="B235" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C235" s="202" t="s">
-        <v>573</v>
-      </c>
-      <c r="D235" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="E235" s="199" t="s">
-        <v>571</v>
-      </c>
-      <c r="F235" s="53" t="s">
-        <v>547</v>
-      </c>
-      <c r="G235" s="51"/>
-      <c r="H235" s="55"/>
-      <c r="I235" s="55"/>
-      <c r="J235" s="53"/>
-    </row>
-    <row r="236" spans="2:10" ht="216" x14ac:dyDescent="0.15">
-      <c r="B236" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C236" s="202" t="s">
-        <v>574</v>
       </c>
       <c r="D236" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="E236" s="199" t="s">
-        <v>577</v>
-      </c>
-      <c r="F236" s="53"/>
+      <c r="E236" s="136" t="s">
+        <v>551</v>
+      </c>
+      <c r="F236" s="53" t="s">
+        <v>561</v>
+      </c>
       <c r="G236" s="51"/>
       <c r="H236" s="55"/>
       <c r="I236" s="55"/>
       <c r="J236" s="53"/>
     </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:10" ht="108" x14ac:dyDescent="0.15">
       <c r="B237" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C237" s="50"/>
-      <c r="D237" s="55"/>
-      <c r="E237" s="71"/>
-      <c r="F237" s="53"/>
+        <v>168</v>
+      </c>
+      <c r="C237" s="139" t="s">
+        <v>548</v>
+      </c>
+      <c r="D237" s="55" t="s">
+        <v>530</v>
+      </c>
+      <c r="E237" s="136" t="s">
+        <v>552</v>
+      </c>
+      <c r="F237" s="138" t="s">
+        <v>549</v>
+      </c>
       <c r="G237" s="51"/>
       <c r="H237" s="55"/>
       <c r="I237" s="55"/>
       <c r="J237" s="53"/>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B238" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C238" s="50"/>
-      <c r="D238" s="55"/>
-      <c r="E238" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="F238" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="G238" s="51"/>
-      <c r="H238" s="55"/>
-      <c r="I238" s="55"/>
-      <c r="J238" s="53"/>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="B238" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C238" s="132" t="s">
+        <v>550</v>
+      </c>
+      <c r="D238" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E238" s="140" t="s">
+        <v>557</v>
+      </c>
+      <c r="F238" s="142" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B239" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C239" s="50"/>
-      <c r="D239" s="55"/>
-      <c r="E239" s="71" t="s">
-        <v>29</v>
+        <v>67</v>
+      </c>
+      <c r="C239" s="139" t="s">
+        <v>568</v>
+      </c>
+      <c r="D239" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E239" s="136" t="s">
+        <v>565</v>
       </c>
       <c r="F239" s="53" t="s">
-        <v>222</v>
+        <v>566</v>
       </c>
       <c r="G239" s="51"/>
       <c r="H239" s="55"/>
       <c r="I239" s="55"/>
       <c r="J239" s="53"/>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B240" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C240" s="50"/>
-      <c r="D240" s="55"/>
-      <c r="E240" s="71"/>
-      <c r="F240" s="207"/>
+        <v>68</v>
+      </c>
+      <c r="C240" s="139" t="s">
+        <v>583</v>
+      </c>
+      <c r="D240" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E240" s="136" t="s">
+        <v>567</v>
+      </c>
+      <c r="F240" s="53" t="s">
+        <v>543</v>
+      </c>
       <c r="G240" s="51"/>
       <c r="H240" s="55"/>
       <c r="I240" s="55"/>
       <c r="J240" s="53"/>
     </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B241" s="56"/>
-      <c r="C241" s="46"/>
-      <c r="D241" s="57"/>
-      <c r="E241" s="12"/>
-      <c r="F241" s="58"/>
-      <c r="G241" s="47"/>
-      <c r="H241" s="59"/>
-      <c r="I241" s="33"/>
-      <c r="J241" s="58"/>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B242" s="48" t="s">
+    <row r="241" spans="2:10" ht="300" x14ac:dyDescent="0.15">
+      <c r="B241" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C241" s="139" t="s">
+        <v>584</v>
+      </c>
+      <c r="D241" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E241" s="136" t="s">
+        <v>576</v>
+      </c>
+      <c r="F241" s="218" t="s">
+        <v>577</v>
+      </c>
+      <c r="G241" s="51"/>
+      <c r="H241" s="55"/>
+      <c r="I241" s="55"/>
+      <c r="J241" s="53"/>
+    </row>
+    <row r="242" spans="2:10" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="B242" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C242" s="139" t="s">
+        <v>585</v>
+      </c>
+      <c r="D242" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E242" s="136" t="s">
+        <v>579</v>
+      </c>
+      <c r="F242" s="138" t="s">
+        <v>580</v>
+      </c>
+      <c r="G242" s="51"/>
+      <c r="H242" s="55"/>
+      <c r="I242" s="55"/>
+      <c r="J242" s="53"/>
+    </row>
+    <row r="243" spans="2:10" ht="360" x14ac:dyDescent="0.15">
+      <c r="B243" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C243" s="139" t="s">
+        <v>581</v>
+      </c>
+      <c r="D243" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E243" s="136" t="s">
+        <v>586</v>
+      </c>
+      <c r="F243" s="138" t="s">
+        <v>582</v>
+      </c>
+      <c r="G243" s="51"/>
+      <c r="H243" s="55"/>
+      <c r="I243" s="55"/>
+      <c r="J243" s="53"/>
+    </row>
+    <row r="244" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B244" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C244" s="139" t="s">
+        <v>587</v>
+      </c>
+      <c r="D244" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E244" s="136" t="s">
+        <v>607</v>
+      </c>
+      <c r="F244" s="217" t="s">
+        <v>588</v>
+      </c>
+      <c r="G244" s="51"/>
+      <c r="H244" s="55"/>
+      <c r="I244" s="55"/>
+      <c r="J244" s="53"/>
+    </row>
+    <row r="245" spans="2:10" ht="132" x14ac:dyDescent="0.15">
+      <c r="B245" s="49" t="s">
+        <v>590</v>
+      </c>
+      <c r="C245" s="139" t="s">
+        <v>578</v>
+      </c>
+      <c r="D245" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E245" s="136" t="s">
+        <v>606</v>
+      </c>
+      <c r="F245" s="219" t="s">
+        <v>592</v>
+      </c>
+      <c r="G245" s="51"/>
+      <c r="H245" s="55"/>
+      <c r="I245" s="55"/>
+      <c r="J245" s="53"/>
+    </row>
+    <row r="246" spans="2:10" ht="228" x14ac:dyDescent="0.15">
+      <c r="B246" s="49" t="s">
+        <v>591</v>
+      </c>
+      <c r="C246" s="139" t="s">
+        <v>589</v>
+      </c>
+      <c r="D246" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E246" s="136" t="s">
+        <v>608</v>
+      </c>
+      <c r="F246" s="218" t="s">
+        <v>588</v>
+      </c>
+      <c r="G246" s="51"/>
+      <c r="H246" s="55"/>
+      <c r="I246" s="55"/>
+      <c r="J246" s="53"/>
+    </row>
+    <row r="247" spans="2:10" ht="191.25" x14ac:dyDescent="0.15">
+      <c r="B247" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C247" s="139" t="s">
+        <v>578</v>
+      </c>
+      <c r="D247" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E247" s="136" t="s">
+        <v>606</v>
+      </c>
+      <c r="F247" s="224" t="s">
+        <v>609</v>
+      </c>
+      <c r="G247" s="51"/>
+      <c r="H247" s="55"/>
+      <c r="I247" s="55"/>
+      <c r="J247" s="53"/>
+    </row>
+    <row r="248" spans="2:10" ht="236.25" x14ac:dyDescent="0.15">
+      <c r="B248" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C248" s="139" t="s">
+        <v>581</v>
+      </c>
+      <c r="D248" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E248" s="136" t="s">
+        <v>610</v>
+      </c>
+      <c r="F248" s="224" t="s">
+        <v>611</v>
+      </c>
+      <c r="G248" s="51"/>
+      <c r="H248" s="55"/>
+      <c r="I248" s="55"/>
+      <c r="J248" s="53"/>
+    </row>
+    <row r="249" spans="2:10" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="B249" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C249" s="139" t="s">
+        <v>593</v>
+      </c>
+      <c r="D249" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E249" s="136" t="s">
+        <v>598</v>
+      </c>
+      <c r="F249" s="224" t="s">
+        <v>594</v>
+      </c>
+      <c r="G249" s="51"/>
+      <c r="H249" s="55"/>
+      <c r="I249" s="55"/>
+      <c r="J249" s="53"/>
+    </row>
+    <row r="250" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B250" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C250" s="139" t="s">
+        <v>596</v>
+      </c>
+      <c r="D250" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E250" s="136" t="s">
+        <v>597</v>
+      </c>
+      <c r="F250" s="143" t="s">
+        <v>588</v>
+      </c>
+      <c r="G250" s="51"/>
+      <c r="H250" s="55"/>
+      <c r="I250" s="55"/>
+      <c r="J250" s="53"/>
+    </row>
+    <row r="251" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B251" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C251" s="139" t="s">
+        <v>595</v>
+      </c>
+      <c r="D251" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E251" s="136" t="s">
+        <v>599</v>
+      </c>
+      <c r="F251" s="143" t="s">
+        <v>588</v>
+      </c>
+      <c r="G251" s="51"/>
+      <c r="H251" s="55"/>
+      <c r="I251" s="55"/>
+      <c r="J251" s="53"/>
+    </row>
+    <row r="252" spans="2:10" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="B252" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C252" s="139" t="s">
+        <v>581</v>
+      </c>
+      <c r="D252" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E252" s="136" t="s">
+        <v>600</v>
+      </c>
+      <c r="F252" s="224" t="s">
+        <v>601</v>
+      </c>
+      <c r="G252" s="51"/>
+      <c r="H252" s="55"/>
+      <c r="I252" s="55"/>
+      <c r="J252" s="53"/>
+    </row>
+    <row r="253" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B253" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C253" s="139" t="s">
+        <v>602</v>
+      </c>
+      <c r="D253" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E253" s="136" t="s">
+        <v>603</v>
+      </c>
+      <c r="F253" s="143" t="s">
+        <v>588</v>
+      </c>
+      <c r="G253" s="51"/>
+      <c r="H253" s="55"/>
+      <c r="I253" s="55"/>
+      <c r="J253" s="53"/>
+    </row>
+    <row r="254" spans="2:10" ht="281.25" x14ac:dyDescent="0.15">
+      <c r="B254" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C254" s="139" t="s">
+        <v>604</v>
+      </c>
+      <c r="D254" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E254" s="136" t="s">
+        <v>605</v>
+      </c>
+      <c r="F254" s="224" t="s">
+        <v>612</v>
+      </c>
+      <c r="G254" s="51"/>
+      <c r="H254" s="55"/>
+      <c r="I254" s="55"/>
+      <c r="J254" s="53"/>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B255" s="222"/>
+      <c r="C255" s="46"/>
+      <c r="D255" s="220"/>
+      <c r="E255" s="12"/>
+      <c r="F255" s="223"/>
+      <c r="G255" s="47"/>
+      <c r="H255" s="221"/>
+      <c r="I255" s="33"/>
+      <c r="J255" s="223"/>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B256" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="C242" s="46"/>
-      <c r="D242" s="47"/>
-      <c r="E242" s="12"/>
-      <c r="F242" s="8"/>
-      <c r="G242" s="47"/>
-      <c r="H242" s="33"/>
-      <c r="I242" s="33"/>
-      <c r="J242" s="8"/>
-    </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B243" s="45"/>
-      <c r="C243" s="46"/>
-      <c r="D243" s="47"/>
-      <c r="E243" s="12"/>
-      <c r="F243" s="8"/>
-      <c r="G243" s="47"/>
-      <c r="H243" s="33"/>
-      <c r="I243" s="33"/>
-      <c r="J243" s="8"/>
-    </row>
-    <row r="244" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B244" s="27" t="s">
+      <c r="C256" s="46"/>
+      <c r="D256" s="47"/>
+      <c r="E256" s="12"/>
+      <c r="F256" s="8"/>
+      <c r="G256" s="47"/>
+      <c r="H256" s="33"/>
+      <c r="I256" s="33"/>
+      <c r="J256" s="8"/>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B257" s="45"/>
+      <c r="C257" s="46"/>
+      <c r="D257" s="47"/>
+      <c r="E257" s="12"/>
+      <c r="F257" s="8"/>
+      <c r="G257" s="47"/>
+      <c r="H257" s="33"/>
+      <c r="I257" s="33"/>
+      <c r="J257" s="8"/>
+    </row>
+    <row r="258" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B258" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C244" s="9" t="s">
+      <c r="C258" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D244" s="9" t="s">
+      <c r="D258" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E244" s="10" t="s">
+      <c r="E258" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F244" s="9" t="s">
+      <c r="F258" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G244" s="11" t="s">
+      <c r="G258" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="H244" s="9" t="s">
+      <c r="H258" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I244" s="9" t="s">
+      <c r="I258" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J244" s="9" t="s">
+      <c r="J258" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B245" s="30" t="s">
+    <row r="259" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B259" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C245" s="16" t="s">
+      <c r="C259" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D245" s="34" t="s">
+      <c r="D259" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E245" s="14" t="s">
+      <c r="E259" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="F245" s="13" t="s">
+      <c r="F259" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="F246" s="13" t="s">
+    <row r="260" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F260" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="E247" s="14" t="s">
+    <row r="261" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="E261" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="E248" s="14" t="s">
+    <row r="262" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="E262" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F248" s="13" t="s">
+      <c r="F262" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="F249" s="13" t="s">
+    <row r="263" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F263" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B250" s="31"/>
-      <c r="C250" s="18"/>
-      <c r="D250" s="38"/>
-      <c r="E250" s="19"/>
-      <c r="F250" s="28" t="s">
+    <row r="264" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B264" s="31"/>
+      <c r="C264" s="18"/>
+      <c r="D264" s="38"/>
+      <c r="E264" s="19"/>
+      <c r="F264" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G250" s="40"/>
-      <c r="H250" s="38"/>
-      <c r="I250" s="38"/>
-      <c r="J250" s="28"/>
-    </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B251" s="30" t="s">
+      <c r="G264" s="40"/>
+      <c r="H264" s="38"/>
+      <c r="I264" s="38"/>
+      <c r="J264" s="28"/>
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B265" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="C251" s="16" t="s">
+      <c r="C265" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D251" s="34" t="s">
+      <c r="D265" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="E251" s="14" t="s">
+      <c r="E265" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F251" s="13" t="s">
+      <c r="F265" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="E252" s="14" t="s">
+    <row r="266" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="E266" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="F252" s="13" t="s">
+      <c r="F266" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B253" s="31"/>
-      <c r="C253" s="18"/>
-      <c r="D253" s="38"/>
-      <c r="E253" s="19"/>
-      <c r="F253" s="28"/>
-      <c r="G253" s="40"/>
-      <c r="H253" s="38"/>
-      <c r="I253" s="38"/>
-      <c r="J253" s="28"/>
-    </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B254" s="30" t="s">
+    <row r="267" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B267" s="31"/>
+      <c r="C267" s="18"/>
+      <c r="D267" s="38"/>
+      <c r="E267" s="19"/>
+      <c r="F267" s="28"/>
+      <c r="G267" s="40"/>
+      <c r="H267" s="38"/>
+      <c r="I267" s="38"/>
+      <c r="J267" s="28"/>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B268" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="C254" s="16" t="s">
+      <c r="C268" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D254" s="34" t="s">
+      <c r="D268" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="E254" s="14" t="s">
+      <c r="E268" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="F254" s="44"/>
-    </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="E255" s="14" t="s">
+      <c r="F268" s="44"/>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="E269" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F255" s="44"/>
-    </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="F256" s="44"/>
-    </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="E257" s="14" t="s">
+      <c r="F269" s="44"/>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F270" s="44"/>
+    </row>
+    <row r="271" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="E271" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F257" s="13" t="s">
+      <c r="F271" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="E258" s="14" t="s">
+    <row r="272" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="E272" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="F258" s="13" t="s">
+      <c r="F272" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B259" s="31"/>
-      <c r="C259" s="18"/>
-      <c r="D259" s="38"/>
-      <c r="E259" s="19"/>
-      <c r="F259" s="28"/>
-      <c r="G259" s="40"/>
-      <c r="H259" s="38"/>
-      <c r="I259" s="38"/>
-      <c r="J259" s="28"/>
+    <row r="273" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B273" s="31"/>
+      <c r="C273" s="18"/>
+      <c r="D273" s="38"/>
+      <c r="E273" s="19"/>
+      <c r="F273" s="28"/>
+      <c r="G273" s="40"/>
+      <c r="H273" s="38"/>
+      <c r="I273" s="38"/>
+      <c r="J273" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="J210:J215"/>
+  <mergeCells count="161">
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="J215:J220"/>
     <mergeCell ref="F112:F115"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="B124:B134"/>
-    <mergeCell ref="J194:J200"/>
-    <mergeCell ref="E198:E200"/>
-    <mergeCell ref="D201:D209"/>
-    <mergeCell ref="E201:E203"/>
-    <mergeCell ref="H201:H209"/>
-    <mergeCell ref="F202:F209"/>
-    <mergeCell ref="H176:H184"/>
-    <mergeCell ref="D185:D193"/>
-    <mergeCell ref="H185:H193"/>
-    <mergeCell ref="F187:F193"/>
-    <mergeCell ref="D194:D200"/>
-    <mergeCell ref="E194:E196"/>
-    <mergeCell ref="H154:H167"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="E164:E167"/>
-    <mergeCell ref="D168:D175"/>
-    <mergeCell ref="H168:H175"/>
-    <mergeCell ref="E172:E175"/>
-    <mergeCell ref="H210:H215"/>
-    <mergeCell ref="I210:I215"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="B134:B139"/>
+    <mergeCell ref="J199:J205"/>
+    <mergeCell ref="E203:E205"/>
+    <mergeCell ref="D206:D214"/>
+    <mergeCell ref="E206:E208"/>
+    <mergeCell ref="H206:H214"/>
+    <mergeCell ref="F207:F214"/>
+    <mergeCell ref="H181:H189"/>
+    <mergeCell ref="D190:D198"/>
+    <mergeCell ref="H190:H198"/>
+    <mergeCell ref="F192:F198"/>
+    <mergeCell ref="D199:D205"/>
+    <mergeCell ref="E199:E201"/>
+    <mergeCell ref="H159:H172"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="E169:E172"/>
+    <mergeCell ref="D173:D180"/>
+    <mergeCell ref="H173:H180"/>
+    <mergeCell ref="E177:E180"/>
+    <mergeCell ref="H215:H220"/>
+    <mergeCell ref="I215:I220"/>
     <mergeCell ref="D110:D115"/>
     <mergeCell ref="H110:H115"/>
     <mergeCell ref="D116:D119"/>
     <mergeCell ref="H116:H119"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="H124:H134"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="H135:H137"/>
-    <mergeCell ref="H138:H142"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="H134:H139"/>
+    <mergeCell ref="D140:D142"/>
+    <mergeCell ref="H140:H142"/>
+    <mergeCell ref="E134:E139"/>
+    <mergeCell ref="F134:F139"/>
+    <mergeCell ref="G134:G139"/>
     <mergeCell ref="H143:H147"/>
-    <mergeCell ref="D148:D153"/>
-    <mergeCell ref="H148:H153"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G201:G209"/>
-    <mergeCell ref="B210:B215"/>
-    <mergeCell ref="C210:C215"/>
-    <mergeCell ref="G210:G215"/>
-    <mergeCell ref="D210:D215"/>
-    <mergeCell ref="E210:E212"/>
-    <mergeCell ref="B201:B209"/>
-    <mergeCell ref="C201:C209"/>
-    <mergeCell ref="F194:F200"/>
-    <mergeCell ref="G194:G200"/>
-    <mergeCell ref="H194:H200"/>
-    <mergeCell ref="I194:I200"/>
-    <mergeCell ref="B194:B200"/>
-    <mergeCell ref="C194:C200"/>
-    <mergeCell ref="B185:B193"/>
-    <mergeCell ref="C185:C193"/>
-    <mergeCell ref="G185:G193"/>
-    <mergeCell ref="B176:B184"/>
-    <mergeCell ref="C176:C184"/>
-    <mergeCell ref="G176:G184"/>
-    <mergeCell ref="D176:D184"/>
-    <mergeCell ref="B168:B175"/>
-    <mergeCell ref="C168:C175"/>
-    <mergeCell ref="G168:G175"/>
-    <mergeCell ref="B154:B167"/>
-    <mergeCell ref="C154:C167"/>
-    <mergeCell ref="G154:G167"/>
-    <mergeCell ref="D154:D167"/>
-    <mergeCell ref="B148:B153"/>
-    <mergeCell ref="C148:C153"/>
-    <mergeCell ref="G148:G153"/>
-    <mergeCell ref="F138:F142"/>
-    <mergeCell ref="G138:G142"/>
+    <mergeCell ref="H148:H152"/>
+    <mergeCell ref="D153:D158"/>
+    <mergeCell ref="H153:H158"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="G206:G214"/>
+    <mergeCell ref="B215:B220"/>
+    <mergeCell ref="C215:C220"/>
+    <mergeCell ref="G215:G220"/>
+    <mergeCell ref="D215:D220"/>
+    <mergeCell ref="E215:E217"/>
+    <mergeCell ref="B206:B214"/>
+    <mergeCell ref="C206:C214"/>
+    <mergeCell ref="F199:F205"/>
+    <mergeCell ref="G199:G205"/>
+    <mergeCell ref="H199:H205"/>
+    <mergeCell ref="B173:B180"/>
+    <mergeCell ref="C173:C180"/>
+    <mergeCell ref="G173:G180"/>
+    <mergeCell ref="B159:B172"/>
+    <mergeCell ref="C159:C172"/>
+    <mergeCell ref="G159:G172"/>
+    <mergeCell ref="D159:D172"/>
+    <mergeCell ref="B153:B158"/>
+    <mergeCell ref="I199:I205"/>
+    <mergeCell ref="B199:B205"/>
+    <mergeCell ref="C199:C205"/>
+    <mergeCell ref="B190:B198"/>
+    <mergeCell ref="C190:C198"/>
+    <mergeCell ref="G190:G198"/>
+    <mergeCell ref="B181:B189"/>
+    <mergeCell ref="C181:C189"/>
+    <mergeCell ref="G181:G189"/>
+    <mergeCell ref="D181:D189"/>
+    <mergeCell ref="C153:C158"/>
+    <mergeCell ref="G153:G158"/>
+    <mergeCell ref="F143:F147"/>
+    <mergeCell ref="G143:G147"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="E148:E152"/>
+    <mergeCell ref="F148:F152"/>
+    <mergeCell ref="G148:G152"/>
     <mergeCell ref="B143:B147"/>
     <mergeCell ref="C143:C147"/>
     <mergeCell ref="D143:D147"/>
     <mergeCell ref="E143:E147"/>
-    <mergeCell ref="F143:F147"/>
-    <mergeCell ref="G143:G147"/>
-    <mergeCell ref="B138:B142"/>
-    <mergeCell ref="C138:C142"/>
-    <mergeCell ref="D138:D142"/>
-    <mergeCell ref="E138:E142"/>
-    <mergeCell ref="E124:E134"/>
-    <mergeCell ref="F124:F134"/>
-    <mergeCell ref="G124:G134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="G135:G137"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="G140:G142"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
     <mergeCell ref="B116:B119"/>
     <mergeCell ref="C116:C119"/>
     <mergeCell ref="G116:G119"/>
+    <mergeCell ref="C134:C139"/>
+    <mergeCell ref="D134:D139"/>
     <mergeCell ref="B110:B115"/>
     <mergeCell ref="C110:C115"/>
     <mergeCell ref="G110:G115"/>
@@ -9792,6 +10653,12 @@
     <mergeCell ref="D77:D80"/>
     <mergeCell ref="C37:C41"/>
     <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C42:C45"/>
@@ -9802,15 +10669,6 @@
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="B5:B9"/>
     <mergeCell ref="C52:C57"/>
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="B49:B51"/>
@@ -9820,9 +10678,12 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="C23:C26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="C94:C97"/>
@@ -9832,14 +10693,13 @@
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C124:C134"/>
-    <mergeCell ref="D124:D134"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="E118" location="手順書_hostA!E100" display="ユーザ名:  「work」" xr:uid="{FFB9A1F0-19CC-4130-8A89-5FC5A9CB9F8F}"/>
-    <hyperlink ref="E220" location="手順書_hostA!B120" display="3: hostAのTera TermでのログインのNo.3まで同じ作業すること。" xr:uid="{002BF94E-B673-4F8D-979D-20478B3E88E9}"/>
-    <hyperlink ref="E230" location="手順書_hostA!B120" display="3: hostAのTera TermでのログインのNo.3まで同じ作業すること。" xr:uid="{74DD794D-B1F7-4F37-810E-ED63A503E182}"/>
+    <hyperlink ref="E132" location="手順書_hostA!B107" display="3.共通作業を行う" xr:uid="{3851EFD8-AC87-402A-85B4-777FA2C6ABC6}"/>
+    <hyperlink ref="E225" location="手順書_hostA!B107" display="3.共通作業を行う" xr:uid="{BF4E476D-4525-4AAB-9E69-58BA5F4F8ED2}"/>
+    <hyperlink ref="E235" location="手順書_hostA!B107" display="3.共通作業を行う" xr:uid="{93856A0D-6AD7-4795-9BB3-DA926582241B}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
@@ -9897,18 +10757,18 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="108"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="12"/>
       <c r="D3" s="47"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="109"/>
+      <c r="G3" s="89"/>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="85" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -9937,10 +10797,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="153" t="s">
         <v>225</v>
       </c>
       <c r="D5" s="35"/>
@@ -9955,8 +10815,8 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="87"/>
-      <c r="C6" s="90"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="154"/>
       <c r="D6" s="35"/>
       <c r="F6" s="15"/>
       <c r="H6" s="35"/>
@@ -9964,13 +10824,13 @@
       <c r="J6" s="15"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="87"/>
-      <c r="C7" s="90"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="154"/>
       <c r="D7" s="35"/>
       <c r="E7" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="195" t="s">
         <v>235</v>
       </c>
       <c r="H7" s="35"/>
@@ -9978,35 +10838,35 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="87"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="154"/>
       <c r="D8" s="35"/>
       <c r="E8" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="97"/>
+      <c r="F8" s="195"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="88"/>
-      <c r="C9" s="91"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="155"/>
       <c r="D9" s="36"/>
       <c r="E9" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="F9" s="98"/>
+      <c r="F9" s="196"/>
       <c r="G9" s="40"/>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="153" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="35"/>
@@ -10021,8 +10881,8 @@
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="88"/>
-      <c r="C11" s="91"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="155"/>
       <c r="D11" s="36"/>
       <c r="E11" s="19" t="s">
         <v>32</v>
@@ -10034,10 +10894,10 @@
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="153" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="35"/>
@@ -10052,8 +10912,8 @@
       <c r="J12" s="15"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="88"/>
-      <c r="C13" s="91"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="155"/>
       <c r="D13" s="36"/>
       <c r="E13" s="19" t="s">
         <v>432</v>
@@ -10065,10 +10925,10 @@
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="153" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="35"/>
@@ -10083,8 +10943,8 @@
       <c r="J14" s="15"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="88"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="36"/>
       <c r="E15" s="19" t="s">
         <v>431</v>
@@ -10096,10 +10956,10 @@
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="153" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="35"/>
@@ -10114,8 +10974,8 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="88"/>
-      <c r="C17" s="91"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="155"/>
       <c r="D17" s="36"/>
       <c r="E17" s="19"/>
       <c r="F17" s="17"/>
@@ -10125,10 +10985,10 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="151" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="153" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="35"/>
@@ -10143,8 +11003,8 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="88"/>
-      <c r="C19" s="91"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="155"/>
       <c r="D19" s="36"/>
       <c r="E19" s="17" t="s">
         <v>434</v>
@@ -10156,10 +11016,10 @@
       <c r="J19" s="17"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="153" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="35"/>
@@ -10174,8 +11034,8 @@
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="87"/>
-      <c r="C21" s="90"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="154"/>
       <c r="D21" s="35"/>
       <c r="E21" s="14" t="s">
         <v>46</v>
@@ -10188,8 +11048,8 @@
       <c r="J21" s="15"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="88"/>
-      <c r="C22" s="91"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="155"/>
       <c r="D22" s="36"/>
       <c r="E22" s="19" t="s">
         <v>240</v>
@@ -10203,10 +11063,10 @@
       <c r="J22" s="17"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="153" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="35"/>
@@ -10221,8 +11081,8 @@
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="87"/>
-      <c r="C24" s="90"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="154"/>
       <c r="D24" s="35"/>
       <c r="E24" s="14" t="s">
         <v>50</v>
@@ -10235,8 +11095,8 @@
       <c r="J24" s="15"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="87"/>
-      <c r="C25" s="90"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="154"/>
       <c r="D25" s="35"/>
       <c r="E25" s="14" t="s">
         <v>52</v>
@@ -10249,8 +11109,8 @@
       <c r="J25" s="15"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="88"/>
-      <c r="C26" s="91"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="155"/>
       <c r="D26" s="36"/>
       <c r="E26" s="19" t="s">
         <v>54</v>
@@ -10264,10 +11124,10 @@
       <c r="J26" s="17"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="153" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="35"/>
@@ -10282,8 +11142,8 @@
       <c r="J27" s="15"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="88"/>
-      <c r="C28" s="91"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="155"/>
       <c r="D28" s="36"/>
       <c r="E28" s="19" t="s">
         <v>242</v>
@@ -10295,10 +11155,10 @@
       <c r="J28" s="17"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="153" t="s">
         <v>57</v>
       </c>
       <c r="D29" s="35"/>
@@ -10313,8 +11173,8 @@
       <c r="J29" s="15"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="87"/>
-      <c r="C30" s="90"/>
+      <c r="B30" s="156"/>
+      <c r="C30" s="154"/>
       <c r="D30" s="35"/>
       <c r="E30" s="14" t="s">
         <v>59</v>
@@ -10327,8 +11187,8 @@
       <c r="J30" s="15"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="87"/>
-      <c r="C31" s="90"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="154"/>
       <c r="D31" s="35"/>
       <c r="E31" s="14" t="s">
         <v>62</v>
@@ -10341,8 +11201,8 @@
       <c r="J31" s="15"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="88"/>
-      <c r="C32" s="91"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="155"/>
       <c r="D32" s="36"/>
       <c r="E32" s="19" t="s">
         <v>429</v>
@@ -10356,10 +11216,10 @@
       <c r="J32" s="17"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="89" t="s">
+      <c r="C33" s="153" t="s">
         <v>72</v>
       </c>
       <c r="D33" s="35"/>
@@ -10374,8 +11234,8 @@
       <c r="J33" s="15"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B34" s="88"/>
-      <c r="C34" s="91"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="155"/>
       <c r="D34" s="36"/>
       <c r="E34" s="19" t="s">
         <v>435</v>
@@ -10387,10 +11247,10 @@
       <c r="J34" s="17"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="89" t="s">
+      <c r="C35" s="153" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="35"/>
@@ -10405,8 +11265,8 @@
       <c r="J35" s="15"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="88"/>
-      <c r="C36" s="91"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="155"/>
       <c r="D36" s="36"/>
       <c r="E36" s="19" t="s">
         <v>433</v>
@@ -10418,10 +11278,10 @@
       <c r="J36" s="17"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="151" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="89" t="s">
+      <c r="C37" s="153" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="35"/>
@@ -10437,8 +11297,8 @@
       <c r="J37" s="15"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="87"/>
-      <c r="C38" s="90"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="154"/>
       <c r="D38" s="35"/>
       <c r="E38" s="12"/>
       <c r="F38" s="14"/>
@@ -10448,8 +11308,8 @@
       <c r="J38" s="15"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="87"/>
-      <c r="C39" s="90"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="154"/>
       <c r="D39" s="35"/>
       <c r="E39" s="14" t="s">
         <v>246</v>
@@ -10463,8 +11323,8 @@
       <c r="J39" s="15"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="87"/>
-      <c r="C40" s="90"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="154"/>
       <c r="D40" s="35"/>
       <c r="E40" s="15" t="s">
         <v>248</v>
@@ -10478,8 +11338,8 @@
       <c r="J40" s="15"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="88"/>
-      <c r="C41" s="91"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="155"/>
       <c r="D41" s="35"/>
       <c r="E41" s="15" t="s">
         <v>249</v>
@@ -10493,10 +11353,10 @@
       <c r="J41" s="15"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="153" t="s">
         <v>81</v>
       </c>
       <c r="D42" s="37"/>
@@ -10512,8 +11372,8 @@
       <c r="J42" s="20"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="87"/>
-      <c r="C43" s="90"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="154"/>
       <c r="D43" s="35"/>
       <c r="F43" s="15"/>
       <c r="H43" s="35"/>
@@ -10521,8 +11381,8 @@
       <c r="J43" s="15"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="87"/>
-      <c r="C44" s="90"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="154"/>
       <c r="D44" s="35"/>
       <c r="E44" s="14" t="s">
         <v>79</v>
@@ -10535,8 +11395,8 @@
       <c r="J44" s="15"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="88"/>
-      <c r="C45" s="91"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="155"/>
       <c r="D45" s="36"/>
       <c r="E45" s="19" t="s">
         <v>250</v>
@@ -10550,10 +11410,10 @@
       <c r="J45" s="17"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="86" t="s">
+      <c r="B46" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="89" t="s">
+      <c r="C46" s="153" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="35"/>
@@ -10568,8 +11428,8 @@
       <c r="J46" s="15"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="87"/>
-      <c r="C47" s="90"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="154"/>
       <c r="D47" s="35"/>
       <c r="F47" s="15"/>
       <c r="H47" s="35"/>
@@ -10577,8 +11437,8 @@
       <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B48" s="88"/>
-      <c r="C48" s="91"/>
+      <c r="B48" s="152"/>
+      <c r="C48" s="155"/>
       <c r="D48" s="36"/>
       <c r="E48" s="19" t="s">
         <v>436</v>
@@ -10590,10 +11450,10 @@
       <c r="J48" s="17"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="86" t="s">
+      <c r="B49" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="89" t="s">
+      <c r="C49" s="153" t="s">
         <v>97</v>
       </c>
       <c r="D49" s="35"/>
@@ -10608,8 +11468,8 @@
       <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="87"/>
-      <c r="C50" s="90"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="154"/>
       <c r="D50" s="35"/>
       <c r="F50" s="15"/>
       <c r="H50" s="35"/>
@@ -10617,8 +11477,8 @@
       <c r="J50" s="15"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="88"/>
-      <c r="C51" s="91"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="155"/>
       <c r="D51" s="36"/>
       <c r="E51" s="19" t="s">
         <v>99</v>
@@ -10630,10 +11490,10 @@
       <c r="J51" s="17"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="86" t="s">
+      <c r="B52" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="89" t="s">
+      <c r="C52" s="153" t="s">
         <v>101</v>
       </c>
       <c r="D52" s="35"/>
@@ -10648,8 +11508,8 @@
       <c r="J52" s="15"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="87"/>
-      <c r="C53" s="90"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="154"/>
       <c r="D53" s="35"/>
       <c r="E53" s="14" t="s">
         <v>438</v>
@@ -10660,18 +11520,18 @@
       <c r="J53" s="15"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="87"/>
-      <c r="C54" s="90"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="154"/>
       <c r="D54" s="35"/>
       <c r="E54" s="62"/>
-      <c r="F54" s="106"/>
+      <c r="F54" s="86"/>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
       <c r="J54" s="15"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="87"/>
-      <c r="C55" s="90"/>
+      <c r="B55" s="156"/>
+      <c r="C55" s="154"/>
       <c r="D55" s="35"/>
       <c r="E55" s="14" t="s">
         <v>209</v>
@@ -10684,8 +11544,8 @@
       <c r="J55" s="15"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="87"/>
-      <c r="C56" s="90"/>
+      <c r="B56" s="156"/>
+      <c r="C56" s="154"/>
       <c r="D56" s="35"/>
       <c r="E56" s="14" t="s">
         <v>210</v>
@@ -10696,8 +11556,8 @@
       <c r="J56" s="15"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="88"/>
-      <c r="C57" s="91"/>
+      <c r="B57" s="152"/>
+      <c r="C57" s="155"/>
       <c r="D57" s="36"/>
       <c r="E57" s="19" t="s">
         <v>437</v>
@@ -10709,10 +11569,10 @@
       <c r="J57" s="17"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="86" t="s">
+      <c r="B58" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="95" t="s">
+      <c r="C58" s="149" t="s">
         <v>105</v>
       </c>
       <c r="D58" s="35"/>
@@ -10727,8 +11587,8 @@
       <c r="J58" s="15"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="88"/>
-      <c r="C59" s="96"/>
+      <c r="B59" s="152"/>
+      <c r="C59" s="150"/>
       <c r="D59" s="36"/>
       <c r="E59" s="19" t="s">
         <v>205</v>
@@ -10742,10 +11602,10 @@
       <c r="J59" s="17"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="86" t="s">
+      <c r="B60" s="151" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="95" t="s">
+      <c r="C60" s="149" t="s">
         <v>253</v>
       </c>
       <c r="D60" s="37"/>
@@ -10760,8 +11620,8 @@
       <c r="J60" s="15"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B61" s="88"/>
-      <c r="C61" s="96"/>
+      <c r="B61" s="152"/>
+      <c r="C61" s="150"/>
       <c r="D61" s="35"/>
       <c r="E61" s="14" t="s">
         <v>254</v>
@@ -10770,7 +11630,7 @@
       <c r="G61" s="75"/>
       <c r="H61" s="35"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="107"/>
+      <c r="J61" s="87"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B62" s="49" t="s">
@@ -10856,13 +11716,13 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="86" t="s">
+      <c r="B67" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="89" t="s">
+      <c r="C67" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="D67" s="89" t="s">
+      <c r="D67" s="153" t="s">
         <v>302</v>
       </c>
       <c r="E67" s="22" t="s">
@@ -10877,9 +11737,9 @@
       <c r="J67" s="20"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="88"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
+      <c r="B68" s="152"/>
+      <c r="C68" s="155"/>
+      <c r="D68" s="155"/>
       <c r="E68" s="19" t="s">
         <v>111</v>
       </c>
@@ -10911,13 +11771,13 @@
       <c r="J69" s="53"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="86" t="s">
+      <c r="B70" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="89" t="s">
+      <c r="C70" s="153" t="s">
         <v>261</v>
       </c>
-      <c r="D70" s="89" t="s">
+      <c r="D70" s="153" t="s">
         <v>302</v>
       </c>
       <c r="E70" s="14" t="s">
@@ -10928,9 +11788,9 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="88"/>
-      <c r="C71" s="91"/>
-      <c r="D71" s="91"/>
+      <c r="B71" s="152"/>
+      <c r="C71" s="155"/>
+      <c r="D71" s="155"/>
       <c r="E71" s="19" t="s">
         <v>117</v>
       </c>
@@ -10962,26 +11822,26 @@
       <c r="J72" s="53"/>
     </row>
     <row r="73" spans="2:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="B73" s="99" t="s">
+      <c r="B73" s="165" t="s">
         <v>426</v>
       </c>
-      <c r="C73" s="100"/>
-      <c r="D73" s="100"/>
-      <c r="E73" s="100"/>
-      <c r="F73" s="100"/>
-      <c r="G73" s="100"/>
-      <c r="H73" s="100"/>
-      <c r="I73" s="100"/>
-      <c r="J73" s="101"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="166"/>
+      <c r="E73" s="166"/>
+      <c r="F73" s="166"/>
+      <c r="G73" s="166"/>
+      <c r="H73" s="166"/>
+      <c r="I73" s="166"/>
+      <c r="J73" s="167"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="86" t="s">
+      <c r="B74" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="89" t="s">
+      <c r="C74" s="153" t="s">
         <v>265</v>
       </c>
-      <c r="D74" s="89" t="s">
+      <c r="D74" s="153" t="s">
         <v>302</v>
       </c>
       <c r="E74" s="22" t="s">
@@ -10996,9 +11856,9 @@
       <c r="J74" s="43"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="87"/>
-      <c r="C75" s="90"/>
-      <c r="D75" s="90"/>
+      <c r="B75" s="156"/>
+      <c r="C75" s="154"/>
+      <c r="D75" s="154"/>
       <c r="E75" s="14" t="s">
         <v>267</v>
       </c>
@@ -11007,9 +11867,9 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="88"/>
-      <c r="C76" s="91"/>
-      <c r="D76" s="91"/>
+      <c r="B76" s="152"/>
+      <c r="C76" s="155"/>
+      <c r="D76" s="155"/>
       <c r="E76" s="14" t="s">
         <v>268</v>
       </c>
@@ -11018,13 +11878,13 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="86" t="s">
+      <c r="B77" s="151" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="89" t="s">
+      <c r="C77" s="153" t="s">
         <v>271</v>
       </c>
-      <c r="D77" s="89" t="s">
+      <c r="D77" s="153" t="s">
         <v>302</v>
       </c>
       <c r="E77" s="22" t="s">
@@ -11039,9 +11899,9 @@
       <c r="J77" s="43"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="87"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
+      <c r="B78" s="156"/>
+      <c r="C78" s="154"/>
+      <c r="D78" s="154"/>
       <c r="E78" s="14" t="s">
         <v>273</v>
       </c>
@@ -11051,9 +11911,9 @@
       <c r="G78" s="35"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="87"/>
-      <c r="C79" s="90"/>
-      <c r="D79" s="90"/>
+      <c r="B79" s="156"/>
+      <c r="C79" s="154"/>
+      <c r="D79" s="154"/>
       <c r="E79" s="14" t="s">
         <v>274</v>
       </c>
@@ -11062,21 +11922,21 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="88"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="91"/>
+      <c r="B80" s="152"/>
+      <c r="C80" s="155"/>
+      <c r="D80" s="155"/>
       <c r="E80" s="14" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="86" t="s">
+      <c r="B81" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="89" t="s">
+      <c r="C81" s="153" t="s">
         <v>276</v>
       </c>
-      <c r="D81" s="89" t="s">
+      <c r="D81" s="153" t="s">
         <v>302</v>
       </c>
       <c r="E81" s="22" t="s">
@@ -11091,9 +11951,9 @@
       <c r="J81" s="43"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B82" s="87"/>
-      <c r="C82" s="90"/>
-      <c r="D82" s="90"/>
+      <c r="B82" s="156"/>
+      <c r="C82" s="154"/>
+      <c r="D82" s="154"/>
       <c r="E82" s="14" t="s">
         <v>284</v>
       </c>
@@ -11102,9 +11962,9 @@
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B83" s="87"/>
-      <c r="C83" s="90"/>
-      <c r="D83" s="90"/>
+      <c r="B83" s="156"/>
+      <c r="C83" s="154"/>
+      <c r="D83" s="154"/>
       <c r="E83" s="14" t="s">
         <v>279</v>
       </c>
@@ -11113,9 +11973,9 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="87"/>
-      <c r="C84" s="90"/>
-      <c r="D84" s="90"/>
+      <c r="B84" s="156"/>
+      <c r="C84" s="154"/>
+      <c r="D84" s="154"/>
       <c r="E84" s="14" t="s">
         <v>285</v>
       </c>
@@ -11124,9 +11984,9 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="87"/>
-      <c r="C85" s="90"/>
-      <c r="D85" s="90"/>
+      <c r="B85" s="156"/>
+      <c r="C85" s="154"/>
+      <c r="D85" s="154"/>
       <c r="E85" s="14" t="s">
         <v>280</v>
       </c>
@@ -11135,9 +11995,9 @@
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="87"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="90"/>
+      <c r="B86" s="156"/>
+      <c r="C86" s="154"/>
+      <c r="D86" s="154"/>
       <c r="E86" s="14" t="s">
         <v>281</v>
       </c>
@@ -11146,9 +12006,9 @@
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="87"/>
-      <c r="C87" s="90"/>
-      <c r="D87" s="90"/>
+      <c r="B87" s="156"/>
+      <c r="C87" s="154"/>
+      <c r="D87" s="154"/>
       <c r="E87" s="14" t="s">
         <v>282</v>
       </c>
@@ -11157,9 +12017,9 @@
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="87"/>
-      <c r="C88" s="90"/>
-      <c r="D88" s="90"/>
+      <c r="B88" s="156"/>
+      <c r="C88" s="154"/>
+      <c r="D88" s="154"/>
       <c r="E88" s="14" t="s">
         <v>283</v>
       </c>
@@ -11168,9 +12028,9 @@
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="87"/>
-      <c r="C89" s="90"/>
-      <c r="D89" s="90"/>
+      <c r="B89" s="156"/>
+      <c r="C89" s="154"/>
+      <c r="D89" s="154"/>
       <c r="E89" s="14" t="s">
         <v>444</v>
       </c>
@@ -11179,9 +12039,9 @@
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B90" s="87"/>
-      <c r="C90" s="90"/>
-      <c r="D90" s="90"/>
+      <c r="B90" s="156"/>
+      <c r="C90" s="154"/>
+      <c r="D90" s="154"/>
       <c r="E90" s="14" t="s">
         <v>287</v>
       </c>
@@ -11190,9 +12050,9 @@
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="87"/>
-      <c r="C91" s="90"/>
-      <c r="D91" s="90"/>
+      <c r="B91" s="156"/>
+      <c r="C91" s="154"/>
+      <c r="D91" s="154"/>
       <c r="E91" s="14" t="s">
         <v>288</v>
       </c>
@@ -11201,17 +12061,17 @@
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="87"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="90"/>
+      <c r="B92" s="156"/>
+      <c r="C92" s="154"/>
+      <c r="D92" s="154"/>
       <c r="E92" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="88"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="91"/>
+      <c r="B93" s="152"/>
+      <c r="C93" s="155"/>
+      <c r="D93" s="155"/>
       <c r="E93" s="19" t="s">
         <v>291</v>
       </c>
@@ -11222,13 +12082,13 @@
       <c r="J93" s="28"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="86" t="s">
+      <c r="B94" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="C94" s="89" t="s">
+      <c r="C94" s="153" t="s">
         <v>296</v>
       </c>
-      <c r="D94" s="89" t="s">
+      <c r="D94" s="153" t="s">
         <v>302</v>
       </c>
       <c r="E94" s="14" t="s">
@@ -11242,9 +12102,9 @@
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="87"/>
-      <c r="C95" s="90"/>
-      <c r="D95" s="90"/>
+      <c r="B95" s="156"/>
+      <c r="C95" s="154"/>
+      <c r="D95" s="154"/>
       <c r="E95" s="14" t="s">
         <v>297</v>
       </c>
@@ -11253,9 +12113,9 @@
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="87"/>
-      <c r="C96" s="90"/>
-      <c r="D96" s="90"/>
+      <c r="B96" s="156"/>
+      <c r="C96" s="154"/>
+      <c r="D96" s="154"/>
       <c r="E96" s="14" t="s">
         <v>298</v>
       </c>
@@ -11264,9 +12124,9 @@
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B97" s="88"/>
-      <c r="C97" s="91"/>
-      <c r="D97" s="91"/>
+      <c r="B97" s="152"/>
+      <c r="C97" s="155"/>
+      <c r="D97" s="155"/>
       <c r="E97" s="17"/>
       <c r="F97" s="28"/>
       <c r="G97" s="40"/>
@@ -11275,13 +12135,13 @@
       <c r="J97" s="28"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B98" s="86" t="s">
+      <c r="B98" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="C98" s="89" t="s">
+      <c r="C98" s="153" t="s">
         <v>301</v>
       </c>
-      <c r="D98" s="89" t="s">
+      <c r="D98" s="153" t="s">
         <v>302</v>
       </c>
       <c r="E98" s="14" t="s">
@@ -11298,9 +12158,9 @@
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B99" s="87"/>
-      <c r="C99" s="90"/>
-      <c r="D99" s="90"/>
+      <c r="B99" s="156"/>
+      <c r="C99" s="154"/>
+      <c r="D99" s="154"/>
       <c r="E99" s="14" t="s">
         <v>304</v>
       </c>
@@ -11309,9 +12169,9 @@
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B100" s="87"/>
-      <c r="C100" s="90"/>
-      <c r="D100" s="90"/>
+      <c r="B100" s="156"/>
+      <c r="C100" s="154"/>
+      <c r="D100" s="154"/>
       <c r="E100" s="14" t="s">
         <v>305</v>
       </c>
@@ -11320,9 +12180,9 @@
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B101" s="87"/>
-      <c r="C101" s="90"/>
-      <c r="D101" s="90"/>
+      <c r="B101" s="156"/>
+      <c r="C101" s="154"/>
+      <c r="D101" s="154"/>
       <c r="E101" s="14" t="s">
         <v>303</v>
       </c>
@@ -11331,9 +12191,9 @@
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B102" s="87"/>
-      <c r="C102" s="90"/>
-      <c r="D102" s="90"/>
+      <c r="B102" s="156"/>
+      <c r="C102" s="154"/>
+      <c r="D102" s="154"/>
       <c r="E102" s="14" t="s">
         <v>306</v>
       </c>
@@ -11342,9 +12202,9 @@
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B103" s="88"/>
-      <c r="C103" s="91"/>
-      <c r="D103" s="91"/>
+      <c r="B103" s="152"/>
+      <c r="C103" s="155"/>
+      <c r="D103" s="155"/>
       <c r="E103" s="17" t="s">
         <v>307</v>
       </c>
@@ -11459,13 +12319,13 @@
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B110" s="86" t="s">
+      <c r="B110" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="89" t="s">
+      <c r="C110" s="153" t="s">
         <v>124</v>
       </c>
-      <c r="D110" s="89" t="s">
+      <c r="D110" s="153" t="s">
         <v>302</v>
       </c>
       <c r="E110" s="22" t="s">
@@ -11480,25 +12340,25 @@
       <c r="J110" s="20"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B111" s="87"/>
-      <c r="C111" s="90"/>
-      <c r="D111" s="90"/>
+      <c r="B111" s="156"/>
+      <c r="C111" s="154"/>
+      <c r="D111" s="154"/>
       <c r="E111" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B112" s="87"/>
-      <c r="C112" s="90"/>
-      <c r="D112" s="90"/>
+      <c r="B112" s="156"/>
+      <c r="C112" s="154"/>
+      <c r="D112" s="154"/>
       <c r="F112" s="15" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="B113" s="87"/>
-      <c r="C113" s="90"/>
-      <c r="D113" s="90"/>
+      <c r="B113" s="156"/>
+      <c r="C113" s="154"/>
+      <c r="D113" s="154"/>
       <c r="E113" s="14" t="s">
         <v>445</v>
       </c>
@@ -11507,9 +12367,9 @@
       </c>
     </row>
     <row r="114" spans="2:10" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="B114" s="87"/>
-      <c r="C114" s="90"/>
-      <c r="D114" s="90"/>
+      <c r="B114" s="156"/>
+      <c r="C114" s="154"/>
+      <c r="D114" s="154"/>
       <c r="E114" s="14" t="s">
         <v>128</v>
       </c>
@@ -11518,9 +12378,9 @@
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B115" s="87"/>
-      <c r="C115" s="90"/>
-      <c r="D115" s="90"/>
+      <c r="B115" s="156"/>
+      <c r="C115" s="154"/>
+      <c r="D115" s="154"/>
       <c r="E115" s="14" t="s">
         <v>129</v>
       </c>
@@ -11529,9 +12389,9 @@
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B116" s="88"/>
-      <c r="C116" s="91"/>
-      <c r="D116" s="91"/>
+      <c r="B116" s="152"/>
+      <c r="C116" s="155"/>
+      <c r="D116" s="155"/>
       <c r="E116" s="19" t="s">
         <v>130</v>
       </c>
@@ -11542,13 +12402,13 @@
       <c r="J116" s="28"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B117" s="86" t="s">
+      <c r="B117" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="C117" s="89" t="s">
+      <c r="C117" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D117" s="92" t="s">
+      <c r="D117" s="197" t="s">
         <v>302</v>
       </c>
       <c r="E117" s="14" t="s">
@@ -11556,9 +12416,9 @@
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B118" s="88"/>
-      <c r="C118" s="91"/>
-      <c r="D118" s="94"/>
+      <c r="B118" s="152"/>
+      <c r="C118" s="155"/>
+      <c r="D118" s="199"/>
       <c r="E118" s="19" t="s">
         <v>133</v>
       </c>
@@ -11569,13 +12429,13 @@
       <c r="J118" s="28"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B119" s="86" t="s">
+      <c r="B119" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="C119" s="89" t="s">
+      <c r="C119" s="153" t="s">
         <v>134</v>
       </c>
-      <c r="D119" s="92" t="s">
+      <c r="D119" s="197" t="s">
         <v>302</v>
       </c>
       <c r="E119" s="14" t="s">
@@ -11586,22 +12446,22 @@
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B120" s="87"/>
-      <c r="C120" s="90"/>
-      <c r="D120" s="93"/>
+      <c r="B120" s="156"/>
+      <c r="C120" s="154"/>
+      <c r="D120" s="198"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B121" s="87"/>
-      <c r="C121" s="90"/>
-      <c r="D121" s="93"/>
+      <c r="B121" s="156"/>
+      <c r="C121" s="154"/>
+      <c r="D121" s="198"/>
       <c r="E121" s="14" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B122" s="88"/>
-      <c r="C122" s="91"/>
-      <c r="D122" s="94"/>
+      <c r="B122" s="152"/>
+      <c r="C122" s="155"/>
+      <c r="D122" s="199"/>
       <c r="E122" s="19" t="s">
         <v>138</v>
       </c>
@@ -11612,13 +12472,13 @@
       <c r="J122" s="28"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B123" s="86" t="s">
+      <c r="B123" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="C123" s="89" t="s">
+      <c r="C123" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="D123" s="92" t="s">
+      <c r="D123" s="197" t="s">
         <v>302</v>
       </c>
       <c r="E123" s="14" t="s">
@@ -11629,22 +12489,22 @@
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B124" s="87"/>
-      <c r="C124" s="90"/>
-      <c r="D124" s="93"/>
+      <c r="B124" s="156"/>
+      <c r="C124" s="154"/>
+      <c r="D124" s="198"/>
       <c r="E124" s="14" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B125" s="87"/>
-      <c r="C125" s="90"/>
-      <c r="D125" s="93"/>
+      <c r="B125" s="156"/>
+      <c r="C125" s="154"/>
+      <c r="D125" s="198"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B126" s="88"/>
-      <c r="C126" s="91"/>
-      <c r="D126" s="94"/>
+      <c r="B126" s="152"/>
+      <c r="C126" s="155"/>
+      <c r="D126" s="199"/>
       <c r="E126" s="19" t="s">
         <v>195</v>
       </c>
@@ -11666,7 +12526,7 @@
       <c r="J127" s="58"/>
     </row>
     <row r="128" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B128" s="102" t="s">
+      <c r="B128" s="82" t="s">
         <v>140</v>
       </c>
       <c r="C128" s="46"/>
@@ -12459,11 +13319,6 @@
     <mergeCell ref="B77:B80"/>
     <mergeCell ref="C77:C80"/>
     <mergeCell ref="D77:D80"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="C70:C71"/>
     <mergeCell ref="D70:D71"/>
@@ -12473,6 +13328,11 @@
     <mergeCell ref="C52:C57"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="C37:C41"/>
     <mergeCell ref="B42:B45"/>
@@ -12497,13 +13357,13 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12518,8 +13378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A73928-1015-49BC-B232-E2EA88FFF14E}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="E28" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="G49" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12632,7 +13492,7 @@
       <c r="A17" t="s">
         <v>327</v>
       </c>
-      <c r="I17" s="103" t="s">
+      <c r="I17" s="83" t="s">
         <v>381</v>
       </c>
     </row>
@@ -12648,7 +13508,7 @@
       <c r="A19" t="s">
         <v>329</v>
       </c>
-      <c r="I19" s="103" t="s">
+      <c r="I19" s="83" t="s">
         <v>383</v>
       </c>
     </row>
@@ -12656,7 +13516,7 @@
       <c r="A20" t="s">
         <v>330</v>
       </c>
-      <c r="I20" s="103" t="s">
+      <c r="I20" s="83" t="s">
         <v>384</v>
       </c>
     </row>
@@ -12664,7 +13524,7 @@
       <c r="A21" t="s">
         <v>331</v>
       </c>
-      <c r="I21" s="103" t="s">
+      <c r="I21" s="83" t="s">
         <v>385</v>
       </c>
     </row>
@@ -12672,7 +13532,7 @@
       <c r="A22" t="s">
         <v>332</v>
       </c>
-      <c r="I22" s="103" t="s">
+      <c r="I22" s="83" t="s">
         <v>386</v>
       </c>
     </row>
@@ -12680,7 +13540,7 @@
       <c r="A23" t="s">
         <v>333</v>
       </c>
-      <c r="I23" s="103" t="s">
+      <c r="I23" s="83" t="s">
         <v>387</v>
       </c>
     </row>
@@ -12704,7 +13564,7 @@
       <c r="A26" t="s">
         <v>527</v>
       </c>
-      <c r="I26" s="103" t="s">
+      <c r="I26" s="83" t="s">
         <v>390</v>
       </c>
     </row>
@@ -12744,7 +13604,7 @@
       <c r="A31" t="s">
         <v>340</v>
       </c>
-      <c r="I31" s="81" t="s">
+      <c r="I31" s="83" t="s">
         <v>395</v>
       </c>
     </row>
@@ -12752,7 +13612,7 @@
       <c r="A32" t="s">
         <v>341</v>
       </c>
-      <c r="I32" s="81" t="s">
+      <c r="I32" s="83" t="s">
         <v>396</v>
       </c>
     </row>
@@ -12760,7 +13620,7 @@
       <c r="A33" t="s">
         <v>342</v>
       </c>
-      <c r="I33" s="103" t="s">
+      <c r="I33" s="83" t="s">
         <v>397</v>
       </c>
     </row>
@@ -12768,7 +13628,7 @@
       <c r="A34" t="s">
         <v>343</v>
       </c>
-      <c r="I34" s="103" t="s">
+      <c r="I34" s="83" t="s">
         <v>398</v>
       </c>
     </row>
@@ -12776,7 +13636,7 @@
       <c r="A35" t="s">
         <v>344</v>
       </c>
-      <c r="I35" s="103" t="s">
+      <c r="I35" s="83" t="s">
         <v>399</v>
       </c>
     </row>
@@ -12784,7 +13644,7 @@
       <c r="A36" t="s">
         <v>345</v>
       </c>
-      <c r="I36" s="103" t="s">
+      <c r="I36" s="83" t="s">
         <v>400</v>
       </c>
     </row>
@@ -12809,12 +13669,12 @@
         <v>347</v>
       </c>
       <c r="I40" s="81" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="I41" s="81" t="s">
         <v>401</v>
@@ -13016,7 +13876,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I75" s="104"/>
+      <c r="I75" s="84"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
